--- a/BackTest/2019-10-22 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-22 BackTest ENJ.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.700000000000003</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>37.49999999999978</v>
+      </c>
       <c r="L12" t="n">
         <v>67.83000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.799999999999997</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>25.00000000000044</v>
+      </c>
       <c r="L13" t="n">
         <v>67.88000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>29.41176470588255</v>
+      </c>
       <c r="L14" t="n">
         <v>67.93000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.099999999999994</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>36.84210526315821</v>
+      </c>
       <c r="L15" t="n">
         <v>68.00000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.399999999999991</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>23.80952380952387</v>
+      </c>
       <c r="L16" t="n">
         <v>68.04000000000002</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.699999999999989</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>60.00000000000056</v>
+      </c>
       <c r="L17" t="n">
         <v>68.12000000000002</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.699999999999989</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>50.00000000000044</v>
+      </c>
       <c r="L18" t="n">
         <v>68.24000000000002</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.699999999999989</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>38.46153846153897</v>
+      </c>
       <c r="L19" t="n">
         <v>68.32000000000002</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.899999999999991</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>38.46153846153897</v>
+      </c>
       <c r="L20" t="n">
         <v>68.39000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.099999999999994</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>14.28571428571458</v>
+      </c>
       <c r="L21" t="n">
         <v>68.42000000000002</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.099999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>23.07692307692291</v>
+      </c>
       <c r="L22" t="n">
         <v>68.44000000000003</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.299999999999997</v>
       </c>
       <c r="K23" t="n">
-        <v>31.25000000000011</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L23" t="n">
         <v>68.49000000000002</v>
@@ -1466,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>5.263157894736921</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L24" t="n">
         <v>68.46000000000002</v>
@@ -1515,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>5.263157894736921</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L25" t="n">
         <v>68.41000000000003</v>
@@ -1564,7 +1586,7 @@
         <v>4.299999999999997</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.439024390243767</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L26" t="n">
         <v>68.36000000000003</v>
@@ -1613,7 +1635,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K27" t="n">
-        <v>-2.439024390244105</v>
+        <v>-52.94117647058803</v>
       </c>
       <c r="L27" t="n">
         <v>68.27000000000002</v>
@@ -1662,7 +1684,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K28" t="n">
-        <v>8.108108108108025</v>
+        <v>-52.94117647058803</v>
       </c>
       <c r="L28" t="n">
         <v>68.18000000000004</v>
@@ -1711,7 +1733,7 @@
         <v>4.600000000000009</v>
       </c>
       <c r="K29" t="n">
-        <v>2.857142857142695</v>
+        <v>-52.94117647058803</v>
       </c>
       <c r="L29" t="n">
         <v>68.11000000000003</v>
@@ -1760,7 +1782,7 @@
         <v>4.700000000000017</v>
       </c>
       <c r="K30" t="n">
-        <v>-3.030303030302848</v>
+        <v>-37.49999999999911</v>
       </c>
       <c r="L30" t="n">
         <v>68.03000000000002</v>
@@ -1809,7 +1831,7 @@
         <v>4.800000000000026</v>
       </c>
       <c r="K31" t="n">
-        <v>-12.50000000000011</v>
+        <v>-41.17647058823471</v>
       </c>
       <c r="L31" t="n">
         <v>67.96000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>5.100000000000023</v>
       </c>
       <c r="K32" t="n">
-        <v>-23.52941176470566</v>
+        <v>-66.66666666666588</v>
       </c>
       <c r="L32" t="n">
         <v>67.86000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>5.100000000000023</v>
       </c>
       <c r="K33" t="n">
-        <v>-21.21212121212114</v>
+        <v>-45.45454545454452</v>
       </c>
       <c r="L33" t="n">
         <v>67.74000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>5.600000000000023</v>
       </c>
       <c r="K34" t="n">
-        <v>-8.108108108107963</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>67.74000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>6.300000000000026</v>
       </c>
       <c r="K35" t="n">
-        <v>4.761904761904794</v>
+        <v>49.99999999999929</v>
       </c>
       <c r="L35" t="n">
         <v>67.81000000000002</v>
@@ -2064,7 +2086,7 @@
         <v>6.900000000000034</v>
       </c>
       <c r="K36" t="n">
-        <v>-2.222222222222391</v>
+        <v>19.99999999999977</v>
       </c>
       <c r="L36" t="n">
         <v>67.85000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>7.000000000000043</v>
       </c>
       <c r="K37" t="n">
-        <v>-6.976744186046357</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L37" t="n">
         <v>67.91000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>7.100000000000051</v>
       </c>
       <c r="K38" t="n">
-        <v>-9.090909090909092</v>
+        <v>11.99999999999968</v>
       </c>
       <c r="L38" t="n">
         <v>67.96000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>7.300000000000054</v>
       </c>
       <c r="K39" t="n">
-        <v>-4.347826086956522</v>
+        <v>15.38461538461484</v>
       </c>
       <c r="L39" t="n">
         <v>68.01000000000002</v>
@@ -2268,7 +2290,7 @@
         <v>7.300000000000054</v>
       </c>
       <c r="K40" t="n">
-        <v>-9.090909090909092</v>
+        <v>19.99999999999977</v>
       </c>
       <c r="L40" t="n">
         <v>68.05000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>7.900000000000048</v>
       </c>
       <c r="K41" t="n">
-        <v>-16.66666666666642</v>
+        <v>7.142857142857179</v>
       </c>
       <c r="L41" t="n">
         <v>68.04000000000002</v>
@@ -2370,7 +2392,7 @@
         <v>8.200000000000045</v>
       </c>
       <c r="K42" t="n">
-        <v>-9.803921568627352</v>
+        <v>16.1290322580644</v>
       </c>
       <c r="L42" t="n">
         <v>68.09000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>8.30000000000004</v>
       </c>
       <c r="K43" t="n">
-        <v>-12.00000000000007</v>
+        <v>3.70370370370347</v>
       </c>
       <c r="L43" t="n">
         <v>68.15000000000002</v>
@@ -2472,7 +2494,7 @@
         <v>8.500000000000028</v>
       </c>
       <c r="K44" t="n">
-        <v>-2.222222222222082</v>
+        <v>-36.36363636363619</v>
       </c>
       <c r="L44" t="n">
         <v>68.14000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>8.500000000000028</v>
       </c>
       <c r="K45" t="n">
-        <v>-2.222222222222082</v>
+        <v>-12.49999999999933</v>
       </c>
       <c r="L45" t="n">
         <v>68.06000000000002</v>
@@ -2574,7 +2596,7 @@
         <v>8.600000000000023</v>
       </c>
       <c r="K46" t="n">
-        <v>6.976744186046405</v>
+        <v>-12.50000000000033</v>
       </c>
       <c r="L46" t="n">
         <v>68.05000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>8.800000000000026</v>
       </c>
       <c r="K47" t="n">
-        <v>4.545454545454589</v>
+        <v>-17.64705882352951</v>
       </c>
       <c r="L47" t="n">
         <v>68.01000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>9.400000000000034</v>
       </c>
       <c r="K48" t="n">
-        <v>16.00000000000014</v>
+        <v>4.761904761905213</v>
       </c>
       <c r="L48" t="n">
         <v>68.03999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>9.600000000000037</v>
       </c>
       <c r="K49" t="n">
-        <v>8.000000000000068</v>
+        <v>-4.347826086956307</v>
       </c>
       <c r="L49" t="n">
         <v>68.03</v>
@@ -2778,7 +2800,7 @@
         <v>9.80000000000004</v>
       </c>
       <c r="K50" t="n">
-        <v>9.803921568627407</v>
+        <v>36.84210526315821</v>
       </c>
       <c r="L50" t="n">
         <v>68.04000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>9.80000000000004</v>
       </c>
       <c r="K51" t="n">
-        <v>12.00000000000014</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L51" t="n">
         <v>68.11</v>
@@ -2880,7 +2902,7 @@
         <v>9.80000000000004</v>
       </c>
       <c r="K52" t="n">
-        <v>19.14893617021282</v>
+        <v>20.00000000000076</v>
       </c>
       <c r="L52" t="n">
         <v>68.15000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>9.900000000000048</v>
       </c>
       <c r="K53" t="n">
-        <v>16.66666666666652</v>
+        <v>28.57142857142755</v>
       </c>
       <c r="L53" t="n">
         <v>68.16999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>10.00000000000004</v>
       </c>
       <c r="K54" t="n">
-        <v>4.545454545454589</v>
+        <v>19.99999999999962</v>
       </c>
       <c r="L54" t="n">
         <v>68.2</v>
@@ -3033,7 +3055,7 @@
         <v>10.20000000000005</v>
       </c>
       <c r="K55" t="n">
-        <v>-17.94871794871793</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>68.21000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>10.20000000000005</v>
       </c>
       <c r="K56" t="n">
-        <v>-3.030303030302848</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L56" t="n">
         <v>68.21000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>10.70000000000005</v>
       </c>
       <c r="K57" t="n">
-        <v>8.108108108108025</v>
+        <v>7.692307692307187</v>
       </c>
       <c r="L57" t="n">
         <v>68.28</v>
@@ -3186,7 +3208,7 @@
         <v>10.80000000000004</v>
       </c>
       <c r="K58" t="n">
-        <v>8.108108108108441</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L58" t="n">
         <v>68.28</v>
@@ -3237,7 +3259,7 @@
         <v>11.10000000000004</v>
       </c>
       <c r="K59" t="n">
-        <v>10.52631578947388</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L59" t="n">
         <v>68.33000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>11.10000000000004</v>
       </c>
       <c r="K60" t="n">
-        <v>10.52631578947388</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L60" t="n">
         <v>68.36000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>11.10000000000004</v>
       </c>
       <c r="K61" t="n">
-        <v>31.25000000000011</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L61" t="n">
         <v>68.39000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>11.60000000000004</v>
       </c>
       <c r="K62" t="n">
-        <v>5.882352941176569</v>
+        <v>-5.882352941176175</v>
       </c>
       <c r="L62" t="n">
         <v>68.37000000000003</v>
@@ -3441,7 +3463,7 @@
         <v>12.00000000000003</v>
       </c>
       <c r="K63" t="n">
-        <v>13.51351351351356</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L63" t="n">
         <v>68.40000000000003</v>
@@ -3492,7 +3514,7 @@
         <v>12.00000000000003</v>
       </c>
       <c r="K64" t="n">
-        <v>19.99999999999968</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L64" t="n">
         <v>68.44000000000003</v>
@@ -3543,7 +3565,7 @@
         <v>12.30000000000003</v>
       </c>
       <c r="K65" t="n">
-        <v>10.52631578947347</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L65" t="n">
         <v>68.47000000000003</v>
@@ -3594,7 +3616,7 @@
         <v>12.40000000000002</v>
       </c>
       <c r="K66" t="n">
-        <v>5.263157894736921</v>
+        <v>-17.64705882352951</v>
       </c>
       <c r="L66" t="n">
         <v>68.49000000000004</v>
@@ -3645,7 +3667,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K67" t="n">
-        <v>17.94871794871806</v>
+        <v>5.263157894736606</v>
       </c>
       <c r="L67" t="n">
         <v>68.49000000000004</v>
@@ -3696,7 +3718,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>-2.857142857143113</v>
+        <v>-22.22222222222275</v>
       </c>
       <c r="L68" t="n">
         <v>68.48000000000003</v>
@@ -3747,7 +3769,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>3.030303030302874</v>
+        <v>-22.22222222222275</v>
       </c>
       <c r="L69" t="n">
         <v>68.44000000000003</v>
@@ -3798,7 +3820,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>-11.76470588235319</v>
+        <v>-33.33333333333378</v>
       </c>
       <c r="L70" t="n">
         <v>68.37000000000002</v>
@@ -3849,7 +3871,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>-11.76470588235319</v>
+        <v>-12.50000000000033</v>
       </c>
       <c r="L71" t="n">
         <v>68.30000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K72" t="n">
-        <v>-11.76470588235319</v>
+        <v>-50</v>
       </c>
       <c r="L72" t="n">
         <v>68.28</v>
@@ -3951,7 +3973,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K73" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L73" t="n">
         <v>68.22</v>
@@ -4002,7 +4024,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.250000000000139</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>68.16</v>
@@ -4053,7 +4075,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L75" t="n">
         <v>68.13000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>68.11</v>
@@ -4155,7 +4177,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K77" t="n">
-        <v>-20.00000000000023</v>
+        <v>-100</v>
       </c>
       <c r="L77" t="n">
         <v>68.06</v>
@@ -4206,7 +4228,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K78" t="n">
-        <v>-16.66666666666706</v>
+        <v>-100</v>
       </c>
       <c r="L78" t="n">
         <v>68.03</v>
@@ -4256,9 +4278,7 @@
       <c r="J79" t="n">
         <v>13.20000000000002</v>
       </c>
-      <c r="K79" t="n">
-        <v>-33.33333333333378</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>68.00000000000001</v>
       </c>
@@ -4308,7 +4328,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K80" t="n">
-        <v>-46.15384615384662</v>
+        <v>-100</v>
       </c>
       <c r="L80" t="n">
         <v>67.95000000000002</v>
@@ -4359,7 +4379,7 @@
         <v>14.10000000000002</v>
       </c>
       <c r="K81" t="n">
-        <v>-26.6666666666667</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L81" t="n">
         <v>67.94000000000001</v>
@@ -4410,7 +4430,7 @@
         <v>14.10000000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>-11.99999999999996</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L82" t="n">
         <v>67.93000000000001</v>
@@ -4461,7 +4481,7 @@
         <v>14.20000000000002</v>
       </c>
       <c r="K83" t="n">
-        <v>-27.27272727272715</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>67.93000000000001</v>
@@ -4512,7 +4532,7 @@
         <v>14.20000000000002</v>
       </c>
       <c r="K84" t="n">
-        <v>-27.27272727272715</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>67.93000000000001</v>
@@ -4563,7 +4583,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K85" t="n">
-        <v>-38.46153846153855</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L85" t="n">
         <v>67.86</v>
@@ -4614,7 +4634,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K86" t="n">
-        <v>-36.00000000000023</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L86" t="n">
         <v>67.78999999999999</v>
@@ -4665,7 +4685,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>-54.54545454545461</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L87" t="n">
         <v>67.72</v>
@@ -4716,7 +4736,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>-50</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L88" t="n">
         <v>67.64999999999999</v>
@@ -4767,7 +4787,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>-50</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L89" t="n">
         <v>67.57999999999998</v>
@@ -4818,7 +4838,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K90" t="n">
-        <v>-41.17647058823539</v>
+        <v>-75.00000000000134</v>
       </c>
       <c r="L90" t="n">
         <v>67.55999999999997</v>
@@ -4869,7 +4889,7 @@
         <v>15.00000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>-44.44444444444436</v>
+        <v>-77.77777777777884</v>
       </c>
       <c r="L91" t="n">
         <v>67.48999999999998</v>
@@ -4920,7 +4940,7 @@
         <v>15.10000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>-36.84210526315821</v>
+        <v>-77.77777777777884</v>
       </c>
       <c r="L92" t="n">
         <v>67.42999999999998</v>
@@ -4971,7 +4991,7 @@
         <v>15.10000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>-36.84210526315821</v>
+        <v>-77.77777777777884</v>
       </c>
       <c r="L93" t="n">
         <v>67.35999999999999</v>
@@ -5022,7 +5042,7 @@
         <v>15.2</v>
       </c>
       <c r="K94" t="n">
-        <v>-40.00000000000014</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>67.27999999999999</v>
@@ -5073,7 +5093,7 @@
         <v>15.2</v>
       </c>
       <c r="K95" t="n">
-        <v>-40.00000000000014</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>67.27</v>
@@ -5124,7 +5144,7 @@
         <v>15.2</v>
       </c>
       <c r="K96" t="n">
-        <v>-40.00000000000014</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>67.26000000000001</v>
@@ -5175,7 +5195,7 @@
         <v>15.3</v>
       </c>
       <c r="K97" t="n">
-        <v>-33.33333333333378</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>67.26000000000001</v>
@@ -5226,7 +5246,7 @@
         <v>15.39999999999999</v>
       </c>
       <c r="K98" t="n">
-        <v>-36.36363636363666</v>
+        <v>-20</v>
       </c>
       <c r="L98" t="n">
         <v>67.25000000000001</v>
@@ -5277,7 +5297,7 @@
         <v>15.49999999999999</v>
       </c>
       <c r="K99" t="n">
-        <v>-30.43478260869619</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>67.25000000000001</v>
@@ -5328,7 +5348,7 @@
         <v>15.49999999999999</v>
       </c>
       <c r="K100" t="n">
-        <v>-11.11111111111146</v>
+        <v>20</v>
       </c>
       <c r="L100" t="n">
         <v>67.25000000000001</v>
@@ -5379,7 +5399,7 @@
         <v>15.49999999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>-42.85714285714459</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>67.26000000000001</v>
@@ -5430,7 +5450,7 @@
         <v>15.89999999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>-11.11111111111146</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L102" t="n">
         <v>67.30000000000001</v>
@@ -5481,7 +5501,7 @@
         <v>16.3</v>
       </c>
       <c r="K103" t="n">
-        <v>-33.33333333333378</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L103" t="n">
         <v>67.30000000000001</v>
@@ -5532,7 +5552,7 @@
         <v>16.7</v>
       </c>
       <c r="K104" t="n">
-        <v>-11.99999999999996</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>67.35000000000001</v>
@@ -5583,7 +5603,7 @@
         <v>16.7</v>
       </c>
       <c r="K105" t="n">
-        <v>22.22222222222275</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>67.40000000000001</v>
@@ -5634,7 +5654,7 @@
         <v>16.8</v>
       </c>
       <c r="K106" t="n">
-        <v>26.31578947368453</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>67.46000000000001</v>
@@ -5685,7 +5705,7 @@
         <v>16.8</v>
       </c>
       <c r="K107" t="n">
-        <v>26.31578947368453</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L107" t="n">
         <v>67.51000000000001</v>
@@ -5736,7 +5756,7 @@
         <v>17</v>
       </c>
       <c r="K108" t="n">
-        <v>33.33333333333378</v>
+        <v>46.66666666666642</v>
       </c>
       <c r="L108" t="n">
         <v>67.59</v>
@@ -5787,7 +5807,7 @@
         <v>17</v>
       </c>
       <c r="K109" t="n">
-        <v>33.33333333333378</v>
+        <v>46.66666666666642</v>
       </c>
       <c r="L109" t="n">
         <v>67.66</v>
@@ -5838,7 +5858,7 @@
         <v>17</v>
       </c>
       <c r="K110" t="n">
-        <v>33.33333333333378</v>
+        <v>46.66666666666642</v>
       </c>
       <c r="L110" t="n">
         <v>67.73</v>

--- a/BackTest/2019-10-22 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-22 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S110"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>67.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>32940</v>
+        <v>4292.7337</v>
       </c>
       <c r="G2" t="n">
-        <v>67.09833333333333</v>
+        <v>47939.4188</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>10010</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="n">
-        <v>67.10999999999999</v>
+        <v>47939.4188</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1000000000000085</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>12000</v>
+        <v>23154.3558</v>
       </c>
       <c r="G4" t="n">
-        <v>67.13</v>
+        <v>47939.4188</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,41 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>17400</v>
+        <v>4880.52315710015</v>
       </c>
       <c r="G5" t="n">
-        <v>67.145</v>
+        <v>47939.4188</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +593,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>6383.1716</v>
+        <v>5110</v>
       </c>
       <c r="G6" t="n">
-        <v>67.16</v>
+        <v>47939.4188</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +632,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>67.17333333333333</v>
+        <v>47949.4188</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1000000000000085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,41 +675,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="C8" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="F8" t="n">
-        <v>3353.7505</v>
+        <v>1606.6086</v>
       </c>
       <c r="G8" t="n">
-        <v>67.17833333333333</v>
+        <v>47949.4188</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>67</v>
+      </c>
+      <c r="K8" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +718,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="C9" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="D9" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>67.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="F9" t="n">
-        <v>1571.5268</v>
+        <v>1659.9749</v>
       </c>
       <c r="G9" t="n">
-        <v>67.19333333333333</v>
+        <v>47949.4188</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1000000000000085</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>67</v>
+      </c>
+      <c r="K9" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,41 +761,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="C10" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="F10" t="n">
-        <v>202425.5614651471</v>
+        <v>4.2899850523169e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>67.21666666666665</v>
+        <v>47949.4188</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4000000000000057</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>67</v>
+      </c>
+      <c r="K10" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,43 +804,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.90000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="C11" t="n">
-        <v>68.2</v>
+        <v>67.2</v>
       </c>
       <c r="D11" t="n">
-        <v>68.2</v>
+        <v>67.2</v>
       </c>
       <c r="E11" t="n">
-        <v>67.90000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="F11" t="n">
-        <v>11460</v>
+        <v>217.4605</v>
       </c>
       <c r="G11" t="n">
-        <v>67.23833333333333</v>
+        <v>48166.8793</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6000000000000085</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.600000000000009</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>67.76000000000002</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>67</v>
+      </c>
+      <c r="K11" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +847,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>68.2</v>
+        <v>67.3</v>
       </c>
       <c r="C12" t="n">
-        <v>68.3</v>
+        <v>67.3</v>
       </c>
       <c r="D12" t="n">
-        <v>68.3</v>
+        <v>67.3</v>
       </c>
       <c r="E12" t="n">
-        <v>68.2</v>
+        <v>67.3</v>
       </c>
       <c r="F12" t="n">
-        <v>84217.3352</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>67.26833333333333</v>
+        <v>48176.8793</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.700000000000003</v>
+        <v>67.2</v>
       </c>
       <c r="K12" t="n">
-        <v>37.49999999999978</v>
-      </c>
-      <c r="L12" t="n">
-        <v>67.83000000000001</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,45 +890,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>68.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>68.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>68.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>68.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>2471.0574</v>
+        <v>205.974</v>
       </c>
       <c r="G13" t="n">
-        <v>67.29333333333332</v>
+        <v>48382.8533</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.799999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>25.00000000000044</v>
-      </c>
-      <c r="L13" t="n">
-        <v>67.88000000000001</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,45 +931,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>68.3</v>
+        <v>67.2</v>
       </c>
       <c r="C14" t="n">
-        <v>68.3</v>
+        <v>67.2</v>
       </c>
       <c r="D14" t="n">
-        <v>68.3</v>
+        <v>67.2</v>
       </c>
       <c r="E14" t="n">
-        <v>68.3</v>
+        <v>67.2</v>
       </c>
       <c r="F14" t="n">
-        <v>7498.0352</v>
+        <v>569.9</v>
       </c>
       <c r="G14" t="n">
-        <v>67.32166666666666</v>
+        <v>47812.9533</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.899999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>29.41176470588255</v>
-      </c>
-      <c r="L14" t="n">
-        <v>67.93000000000001</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,45 +972,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>68.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>68.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>68.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>68.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>14.5985</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>67.35333333333332</v>
+        <v>47822.9533</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.099999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>36.84210526315821</v>
-      </c>
-      <c r="L15" t="n">
-        <v>68.00000000000001</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,45 +1013,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>68.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>68.2</v>
+        <v>67.3</v>
       </c>
       <c r="D16" t="n">
-        <v>68.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>68.2</v>
+        <v>67.3</v>
       </c>
       <c r="F16" t="n">
-        <v>3130</v>
+        <v>8202.3431</v>
       </c>
       <c r="G16" t="n">
-        <v>67.37666666666665</v>
+        <v>39620.6102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.399999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>23.80952380952387</v>
-      </c>
-      <c r="L16" t="n">
-        <v>68.04000000000002</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,45 +1054,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>68.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C17" t="n">
-        <v>68.5</v>
+        <v>67.7</v>
       </c>
       <c r="D17" t="n">
-        <v>68.5</v>
+        <v>67.7</v>
       </c>
       <c r="E17" t="n">
-        <v>68.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="F17" t="n">
-        <v>270</v>
+        <v>9962.054700000001</v>
       </c>
       <c r="G17" t="n">
-        <v>67.40166666666666</v>
+        <v>49582.6649</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.699999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>60.00000000000056</v>
-      </c>
-      <c r="L17" t="n">
-        <v>68.12000000000002</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,45 +1095,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>68.5</v>
+        <v>67.7</v>
       </c>
       <c r="C18" t="n">
-        <v>68.5</v>
+        <v>67.8</v>
       </c>
       <c r="D18" t="n">
-        <v>68.5</v>
+        <v>67.8</v>
       </c>
       <c r="E18" t="n">
-        <v>68.5</v>
+        <v>67.7</v>
       </c>
       <c r="F18" t="n">
-        <v>28748.2481</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="n">
-        <v>67.42666666666666</v>
+        <v>59582.6649</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.699999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>50.00000000000044</v>
-      </c>
-      <c r="L18" t="n">
-        <v>68.24000000000002</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,45 +1136,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="F19" t="n">
-        <v>6830.1035</v>
+        <v>7920</v>
       </c>
       <c r="G19" t="n">
-        <v>67.45166666666665</v>
+        <v>51662.6649</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.699999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>38.46153846153897</v>
-      </c>
-      <c r="L19" t="n">
-        <v>68.32000000000002</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,45 +1177,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>68.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C20" t="n">
-        <v>68.7</v>
+        <v>67.5</v>
       </c>
       <c r="D20" t="n">
-        <v>68.7</v>
+        <v>67.5</v>
       </c>
       <c r="E20" t="n">
-        <v>68.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="F20" t="n">
-        <v>56368.6897</v>
+        <v>57599.2592</v>
       </c>
       <c r="G20" t="n">
-        <v>67.48166666666665</v>
+        <v>-5936.594299999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.899999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>38.46153846153897</v>
-      </c>
-      <c r="L20" t="n">
-        <v>68.39000000000001</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1218,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>68.5</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>68.5</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>68.5</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>68.5</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>3130</v>
+        <v>3629.0559</v>
       </c>
       <c r="G21" t="n">
-        <v>67.50666666666666</v>
+        <v>-9565.650199999996</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.099999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>14.28571428571458</v>
-      </c>
-      <c r="L21" t="n">
-        <v>68.42000000000002</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>68.09</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1259,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>68.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="D22" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="E22" t="n">
-        <v>68.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>1151.9999</v>
+        <v>12076.6666</v>
       </c>
       <c r="G22" t="n">
-        <v>67.53333333333333</v>
+        <v>2511.016400000004</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.099999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>23.07692307692291</v>
-      </c>
-      <c r="L22" t="n">
-        <v>68.44000000000003</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>68.13500000000002</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1300,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>68.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>68.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>68.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>56374.0917</v>
+        <v>4999.9999</v>
       </c>
       <c r="G23" t="n">
-        <v>67.56333333333333</v>
+        <v>7511.016300000004</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.299999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>28.57142857142886</v>
-      </c>
-      <c r="L23" t="n">
-        <v>68.49000000000002</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>68.18500000000002</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1341,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="D24" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="E24" t="n">
-        <v>68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>671.6427</v>
+        <v>780</v>
       </c>
       <c r="G24" t="n">
-        <v>67.58166666666665</v>
+        <v>8291.016300000003</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>-26.31578947368413</v>
-      </c>
-      <c r="L24" t="n">
-        <v>68.46000000000002</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>68.19500000000002</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,47 +1382,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="C25" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="D25" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="E25" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>485.9271</v>
       </c>
       <c r="G25" t="n">
-        <v>67.59999999999999</v>
+        <v>8291.016300000003</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>-12.50000000000011</v>
-      </c>
-      <c r="L25" t="n">
-        <v>68.41000000000003</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>68.20500000000001</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1571,35 +1435,27 @@
         <v>67.7</v>
       </c>
       <c r="F26" t="n">
-        <v>14000</v>
+        <v>717</v>
       </c>
       <c r="G26" t="n">
-        <v>67.61166666666666</v>
+        <v>8291.016300000003</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.299999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>-49.99999999999956</v>
-      </c>
-      <c r="L26" t="n">
-        <v>68.36000000000003</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>68.20000000000002</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1620,10 +1476,10 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>272.8886</v>
+        <v>790</v>
       </c>
       <c r="G27" t="n">
-        <v>67.62166666666667</v>
+        <v>7501.016300000003</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1631,24 +1487,16 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>4.400000000000006</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>-52.94117647058803</v>
-      </c>
-      <c r="L27" t="n">
-        <v>68.27000000000002</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>68.19500000000002</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,22 +1505,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>20682.8241</v>
+        <v>5981.9751</v>
       </c>
       <c r="G28" t="n">
-        <v>67.63166666666667</v>
+        <v>1519.041200000003</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1680,24 +1528,16 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>4.400000000000006</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>-52.94117647058803</v>
-      </c>
-      <c r="L28" t="n">
-        <v>68.18000000000004</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>68.21000000000001</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,47 +1546,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="D29" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="F29" t="n">
-        <v>1972.9142</v>
+        <v>270.2416</v>
       </c>
       <c r="G29" t="n">
-        <v>67.64500000000001</v>
+        <v>1248.799600000003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.600000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>-52.94117647058803</v>
-      </c>
-      <c r="L29" t="n">
-        <v>68.11000000000003</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>68.215</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,47 +1587,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="C30" t="n">
-        <v>67.90000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="D30" t="n">
-        <v>68.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E30" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="F30" t="n">
-        <v>16141.254</v>
+        <v>9628.642</v>
       </c>
       <c r="G30" t="n">
-        <v>67.66000000000001</v>
+        <v>1248.799600000003</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4.700000000000017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>-37.49999999999911</v>
-      </c>
-      <c r="L30" t="n">
-        <v>68.03000000000002</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>68.21000000000001</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,49 +1628,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="C31" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="D31" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="E31" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="F31" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="n">
-        <v>67.67500000000001</v>
+        <v>1248.799600000003</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4.800000000000026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>-41.17647058823471</v>
-      </c>
-      <c r="L31" t="n">
-        <v>67.96000000000001</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>68.19000000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>68.04666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1855,49 +1669,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>870.9999</v>
+        <v>32940</v>
       </c>
       <c r="G32" t="n">
-        <v>67.685</v>
+        <v>34188.79960000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5.100000000000023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>-66.66666666666588</v>
-      </c>
-      <c r="L32" t="n">
-        <v>67.86000000000001</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>68.15000000000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>68.04333333333334</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,49 +1710,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="D33" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="E33" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>4322.6889</v>
+        <v>10010</v>
       </c>
       <c r="G33" t="n">
-        <v>67.69500000000001</v>
+        <v>44198.79960000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>5.100000000000023</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>-45.45454545454452</v>
-      </c>
-      <c r="L33" t="n">
-        <v>67.74000000000001</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>68.11500000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>68.03666666666668</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,49 +1753,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="C34" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="D34" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="E34" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="F34" t="n">
-        <v>1500</v>
+        <v>12000</v>
       </c>
       <c r="G34" t="n">
-        <v>67.71333333333334</v>
+        <v>56198.79960000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.600000000000023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>67.74000000000001</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>68.10000000000001</v>
-      </c>
-      <c r="N34" t="n">
-        <v>68.04333333333335</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1794,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>68.2</v>
+        <v>67.7</v>
       </c>
       <c r="C35" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="D35" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="E35" t="n">
-        <v>68.2</v>
+        <v>67.7</v>
       </c>
       <c r="F35" t="n">
-        <v>8061.9311</v>
+        <v>17400</v>
       </c>
       <c r="G35" t="n">
-        <v>67.74333333333335</v>
+        <v>56198.79960000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="J35" t="n">
-        <v>6.300000000000026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>49.99999999999929</v>
-      </c>
-      <c r="L35" t="n">
-        <v>67.81000000000002</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>68.11000000000001</v>
-      </c>
-      <c r="N35" t="n">
-        <v>68.07333333333335</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,49 +1835,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>68.3</v>
+        <v>67.8</v>
       </c>
       <c r="C36" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="D36" t="n">
-        <v>68.3</v>
+        <v>67.8</v>
       </c>
       <c r="E36" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="F36" t="n">
-        <v>98171.67419999999</v>
+        <v>6383.1716</v>
       </c>
       <c r="G36" t="n">
-        <v>67.76333333333335</v>
+        <v>56198.79960000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>6.900000000000034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>19.99999999999977</v>
-      </c>
-      <c r="L36" t="n">
-        <v>67.85000000000001</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>68.105</v>
-      </c>
-      <c r="N36" t="n">
-        <v>68.08333333333336</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,49 +1876,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68.2</v>
+        <v>67.7</v>
       </c>
       <c r="C37" t="n">
-        <v>68.2</v>
+        <v>67.7</v>
       </c>
       <c r="D37" t="n">
-        <v>68.2</v>
+        <v>67.7</v>
       </c>
       <c r="E37" t="n">
-        <v>68.2</v>
+        <v>67.7</v>
       </c>
       <c r="F37" t="n">
-        <v>695</v>
+        <v>1000</v>
       </c>
       <c r="G37" t="n">
-        <v>67.78333333333335</v>
+        <v>55198.79960000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J37" t="n">
-        <v>7.000000000000043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L37" t="n">
-        <v>67.91000000000001</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>68.09</v>
-      </c>
-      <c r="N37" t="n">
-        <v>68.10000000000002</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,49 +1917,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="C38" t="n">
-        <v>68.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="D38" t="n">
-        <v>68.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E38" t="n">
-        <v>68.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="F38" t="n">
-        <v>3400</v>
+        <v>3353.7505</v>
       </c>
       <c r="G38" t="n">
-        <v>67.80166666666669</v>
+        <v>51845.0491</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>7.100000000000051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>11.99999999999968</v>
-      </c>
-      <c r="L38" t="n">
-        <v>67.96000000000001</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>68.07000000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>68.12666666666669</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,49 +1958,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>68.3</v>
+        <v>67.7</v>
       </c>
       <c r="D39" t="n">
-        <v>68.3</v>
+        <v>67.7</v>
       </c>
       <c r="E39" t="n">
-        <v>68.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>500</v>
+        <v>1571.5268</v>
       </c>
       <c r="G39" t="n">
-        <v>67.82333333333335</v>
+        <v>53416.5759</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J39" t="n">
-        <v>7.300000000000054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>15.38461538461484</v>
-      </c>
-      <c r="L39" t="n">
-        <v>68.01000000000002</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>68.06</v>
-      </c>
-      <c r="N39" t="n">
-        <v>68.14666666666669</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,49 +1999,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="C40" t="n">
-        <v>68.3</v>
+        <v>68</v>
       </c>
       <c r="D40" t="n">
-        <v>68.3</v>
+        <v>68</v>
       </c>
       <c r="E40" t="n">
-        <v>67.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="F40" t="n">
-        <v>5010</v>
+        <v>202425.5614651471</v>
       </c>
       <c r="G40" t="n">
-        <v>67.84500000000003</v>
+        <v>255842.1373651471</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>7.300000000000054</v>
+        <v>67.7</v>
       </c>
       <c r="K40" t="n">
-        <v>19.99999999999977</v>
-      </c>
-      <c r="L40" t="n">
-        <v>68.05000000000001</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>68.03999999999999</v>
-      </c>
-      <c r="N40" t="n">
-        <v>68.15666666666669</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,49 +2042,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>67.7</v>
+        <v>68.2</v>
       </c>
       <c r="D41" t="n">
-        <v>67.8</v>
+        <v>68.2</v>
       </c>
       <c r="E41" t="n">
-        <v>67.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>11885.544</v>
+        <v>11460</v>
       </c>
       <c r="G41" t="n">
-        <v>67.85333333333337</v>
+        <v>267302.1373651471</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J41" t="n">
-        <v>7.900000000000048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>7.142857142857179</v>
-      </c>
-      <c r="L41" t="n">
-        <v>68.04000000000002</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>68</v>
-      </c>
-      <c r="N41" t="n">
-        <v>68.14000000000001</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,49 +2083,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="C42" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="D42" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="E42" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="F42" t="n">
-        <v>128.9421</v>
+        <v>84217.3352</v>
       </c>
       <c r="G42" t="n">
-        <v>67.86500000000002</v>
+        <v>351519.4725651471</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J42" t="n">
-        <v>8.200000000000045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>16.1290322580644</v>
-      </c>
-      <c r="L42" t="n">
-        <v>68.09000000000002</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>67.97499999999999</v>
-      </c>
-      <c r="N42" t="n">
-        <v>68.13000000000002</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,49 +2124,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="C43" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="D43" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="E43" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>2471.0574</v>
       </c>
       <c r="G43" t="n">
-        <v>67.87666666666669</v>
+        <v>349048.4151651471</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>8.30000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>3.70370370370347</v>
-      </c>
-      <c r="L43" t="n">
-        <v>68.15000000000002</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>67.94499999999999</v>
-      </c>
-      <c r="N43" t="n">
-        <v>68.12666666666669</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,49 +2165,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="C44" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D44" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="E44" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="F44" t="n">
-        <v>459.2897</v>
+        <v>7498.0352</v>
       </c>
       <c r="G44" t="n">
-        <v>67.88833333333336</v>
+        <v>356546.4503651471</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="J44" t="n">
-        <v>8.500000000000028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>-36.36363636363619</v>
-      </c>
-      <c r="L44" t="n">
-        <v>68.14000000000001</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>67.94</v>
-      </c>
-      <c r="N44" t="n">
-        <v>68.11333333333336</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,49 +2206,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>67.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="C45" t="n">
-        <v>67.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D45" t="n">
-        <v>67.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E45" t="n">
-        <v>67.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F45" t="n">
-        <v>568.4752</v>
+        <v>14.5985</v>
       </c>
       <c r="G45" t="n">
-        <v>67.89666666666669</v>
+        <v>356561.0488651471</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="J45" t="n">
-        <v>8.500000000000028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>-12.49999999999933</v>
-      </c>
-      <c r="L45" t="n">
-        <v>68.06000000000002</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>67.935</v>
-      </c>
-      <c r="N45" t="n">
-        <v>68.09333333333335</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,49 +2247,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="C46" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="D46" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="E46" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="F46" t="n">
-        <v>1349</v>
+        <v>3130</v>
       </c>
       <c r="G46" t="n">
-        <v>67.90833333333335</v>
+        <v>353431.0488651471</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J46" t="n">
-        <v>8.600000000000023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>-12.50000000000033</v>
-      </c>
-      <c r="L46" t="n">
-        <v>68.05000000000001</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>67.95</v>
-      </c>
-      <c r="N46" t="n">
-        <v>68.08666666666669</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,49 +2288,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>67.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>67.8</v>
+        <v>68.5</v>
       </c>
       <c r="D47" t="n">
-        <v>67.8</v>
+        <v>68.5</v>
       </c>
       <c r="E47" t="n">
-        <v>67.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>1448.1504</v>
+        <v>270</v>
       </c>
       <c r="G47" t="n">
-        <v>67.91000000000003</v>
+        <v>353701.0488651471</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J47" t="n">
-        <v>8.800000000000026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>-17.64705882352951</v>
-      </c>
-      <c r="L47" t="n">
-        <v>68.01000000000001</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>67.96000000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>68.06333333333335</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,49 +2329,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>68.2</v>
+        <v>68.5</v>
       </c>
       <c r="C48" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D48" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E48" t="n">
-        <v>68.2</v>
+        <v>68.5</v>
       </c>
       <c r="F48" t="n">
-        <v>23156.2483</v>
+        <v>28748.2481</v>
       </c>
       <c r="G48" t="n">
-        <v>67.92000000000002</v>
+        <v>353701.0488651471</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="J48" t="n">
-        <v>9.400000000000034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>4.761904761905213</v>
-      </c>
-      <c r="L48" t="n">
-        <v>68.03999999999999</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>68.00000000000001</v>
-      </c>
-      <c r="N48" t="n">
-        <v>68.06000000000002</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,49 +2370,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>68.2</v>
+        <v>68.5</v>
       </c>
       <c r="C49" t="n">
-        <v>68.2</v>
+        <v>68.5</v>
       </c>
       <c r="D49" t="n">
-        <v>68.2</v>
+        <v>68.5</v>
       </c>
       <c r="E49" t="n">
-        <v>68.2</v>
+        <v>68.5</v>
       </c>
       <c r="F49" t="n">
-        <v>2596.0447</v>
+        <v>6830.1035</v>
       </c>
       <c r="G49" t="n">
-        <v>67.93000000000001</v>
+        <v>353701.0488651471</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J49" t="n">
-        <v>9.600000000000037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>-4.347826086956307</v>
-      </c>
-      <c r="L49" t="n">
-        <v>68.03</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>68.02000000000001</v>
-      </c>
-      <c r="N49" t="n">
-        <v>68.05000000000001</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,46 +2414,36 @@
         <v>68.40000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>68.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="D50" t="n">
-        <v>68.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="E50" t="n">
         <v>68.40000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>1597.0302</v>
+        <v>56368.6897</v>
       </c>
       <c r="G50" t="n">
-        <v>67.94500000000001</v>
+        <v>410069.7385651471</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="J50" t="n">
-        <v>9.80000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>36.84210526315821</v>
-      </c>
-      <c r="L50" t="n">
-        <v>68.04000000000001</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>68.04500000000002</v>
-      </c>
-      <c r="N50" t="n">
-        <v>68.04000000000002</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,49 +2452,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="C51" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D51" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E51" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F51" t="n">
-        <v>908.9597</v>
+        <v>3130</v>
       </c>
       <c r="G51" t="n">
-        <v>67.96666666666667</v>
+        <v>406939.7385651471</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="J51" t="n">
-        <v>9.80000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>25.00000000000044</v>
-      </c>
-      <c r="L51" t="n">
-        <v>68.11</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>68.07500000000002</v>
-      </c>
-      <c r="N51" t="n">
-        <v>68.03666666666668</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,49 +2493,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="C52" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D52" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E52" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F52" t="n">
-        <v>7330.5907</v>
+        <v>1151.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>67.98166666666667</v>
+        <v>406939.7385651471</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="J52" t="n">
-        <v>9.80000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>20.00000000000076</v>
-      </c>
-      <c r="L52" t="n">
-        <v>68.15000000000001</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>68.12000000000003</v>
-      </c>
-      <c r="N52" t="n">
-        <v>68.03333333333335</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,49 +2534,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>68.3</v>
+        <v>68.5</v>
       </c>
       <c r="C53" t="n">
-        <v>68.3</v>
+        <v>68.7</v>
       </c>
       <c r="D53" t="n">
-        <v>68.3</v>
+        <v>68.7</v>
       </c>
       <c r="E53" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>790</v>
+        <v>56374.0917</v>
       </c>
       <c r="G53" t="n">
-        <v>67.99333333333335</v>
+        <v>463313.8302651471</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J53" t="n">
-        <v>9.900000000000048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>28.57142857142755</v>
-      </c>
-      <c r="L53" t="n">
-        <v>68.16999999999999</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>68.16000000000003</v>
-      </c>
-      <c r="N53" t="n">
-        <v>68.02000000000002</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,50 +2575,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>68.2</v>
+        <v>68</v>
       </c>
       <c r="C54" t="n">
-        <v>68.2</v>
+        <v>68</v>
       </c>
       <c r="D54" t="n">
-        <v>68.2</v>
+        <v>68</v>
       </c>
       <c r="E54" t="n">
-        <v>68.2</v>
+        <v>68</v>
       </c>
       <c r="F54" t="n">
-        <v>10903.6269</v>
+        <v>671.6427</v>
       </c>
       <c r="G54" t="n">
-        <v>68.00166666666669</v>
+        <v>462642.1875651471</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J54" t="n">
-        <v>10.00000000000004</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>19.99999999999962</v>
-      </c>
-      <c r="L54" t="n">
-        <v>68.2</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>68.17000000000003</v>
-      </c>
-      <c r="N54" t="n">
-        <v>68.02666666666669</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
+        <v>1.01144245142003</v>
       </c>
     </row>
     <row r="55">
@@ -3028,49 +2616,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="C55" t="n">
         <v>68</v>
       </c>
       <c r="D55" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="E55" t="n">
         <v>68</v>
       </c>
       <c r="F55" t="n">
-        <v>3130</v>
+        <v>15</v>
       </c>
       <c r="G55" t="n">
-        <v>68.00666666666669</v>
+        <v>462642.1875651471</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J55" t="n">
-        <v>10.20000000000005</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>68.21000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>68.13500000000002</v>
-      </c>
-      <c r="N55" t="n">
-        <v>68.02666666666669</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,49 +2651,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="C56" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="D56" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="E56" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="F56" t="n">
-        <v>8239.550499999999</v>
+        <v>14000</v>
       </c>
       <c r="G56" t="n">
-        <v>68.0116666666667</v>
+        <v>448642.1875651471</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J56" t="n">
-        <v>10.20000000000005</v>
-      </c>
-      <c r="K56" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L56" t="n">
-        <v>68.21000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>68.13000000000002</v>
-      </c>
-      <c r="N56" t="n">
-        <v>68.03666666666669</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,49 +2686,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>68.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>68.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>3440.7298</v>
+        <v>272.8886</v>
       </c>
       <c r="G57" t="n">
-        <v>68.0266666666667</v>
+        <v>448369.2989651471</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J57" t="n">
-        <v>10.70000000000005</v>
-      </c>
-      <c r="K57" t="n">
-        <v>7.692307692307187</v>
-      </c>
-      <c r="L57" t="n">
-        <v>68.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>68.14500000000002</v>
-      </c>
-      <c r="N57" t="n">
-        <v>68.06666666666668</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,49 +2721,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>68.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>68.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>68.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>68.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>710</v>
+        <v>20682.8241</v>
       </c>
       <c r="G58" t="n">
-        <v>68.04333333333336</v>
+        <v>448369.2989651471</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="J58" t="n">
-        <v>10.80000000000004</v>
-      </c>
-      <c r="K58" t="n">
-        <v>16.66666666666686</v>
-      </c>
-      <c r="L58" t="n">
-        <v>68.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>68.16000000000004</v>
-      </c>
-      <c r="N58" t="n">
-        <v>68.09333333333335</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,49 +2756,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>68.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C59" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="D59" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="E59" t="n">
-        <v>68.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F59" t="n">
-        <v>438</v>
+        <v>1972.9142</v>
       </c>
       <c r="G59" t="n">
-        <v>68.06666666666669</v>
+        <v>450342.2131651471</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="J59" t="n">
-        <v>11.10000000000004</v>
-      </c>
-      <c r="K59" t="n">
-        <v>23.07692307692291</v>
-      </c>
-      <c r="L59" t="n">
-        <v>68.33000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>68.18000000000004</v>
-      </c>
-      <c r="N59" t="n">
-        <v>68.12333333333335</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,49 +2791,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="C60" t="n">
-        <v>68.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="F60" t="n">
-        <v>620</v>
+        <v>16141.254</v>
       </c>
       <c r="G60" t="n">
-        <v>68.09000000000002</v>
+        <v>466483.4671651471</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.10000000000004</v>
-      </c>
-      <c r="K60" t="n">
-        <v>23.07692307692291</v>
-      </c>
-      <c r="L60" t="n">
-        <v>68.36000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>68.20000000000005</v>
-      </c>
-      <c r="N60" t="n">
-        <v>68.15000000000002</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,49 +2826,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="C61" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="D61" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="E61" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="F61" t="n">
-        <v>7897.2983</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="n">
-        <v>68.11333333333336</v>
+        <v>465483.4671651471</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="J61" t="n">
-        <v>11.10000000000004</v>
-      </c>
-      <c r="K61" t="n">
-        <v>23.07692307692291</v>
-      </c>
-      <c r="L61" t="n">
-        <v>68.39000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>68.25000000000004</v>
-      </c>
-      <c r="N61" t="n">
-        <v>68.18000000000001</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,49 +2861,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68.2</v>
+        <v>67.5</v>
       </c>
       <c r="C62" t="n">
-        <v>68.2</v>
+        <v>67.5</v>
       </c>
       <c r="D62" t="n">
-        <v>68.2</v>
+        <v>67.5</v>
       </c>
       <c r="E62" t="n">
-        <v>68.2</v>
+        <v>67.5</v>
       </c>
       <c r="F62" t="n">
-        <v>9273.248799999999</v>
+        <v>870.9999</v>
       </c>
       <c r="G62" t="n">
-        <v>68.12333333333335</v>
+        <v>464612.4672651471</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J62" t="n">
-        <v>11.60000000000004</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-5.882352941176175</v>
-      </c>
-      <c r="L62" t="n">
-        <v>68.37000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>68.26000000000005</v>
-      </c>
-      <c r="N62" t="n">
-        <v>68.20333333333335</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,49 +2896,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="C63" t="n">
-        <v>68.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D63" t="n">
-        <v>68.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E63" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="F63" t="n">
-        <v>11555.5628</v>
+        <v>4322.6889</v>
       </c>
       <c r="G63" t="n">
-        <v>68.13833333333335</v>
+        <v>464612.4672651471</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>12.00000000000003</v>
-      </c>
-      <c r="K63" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L63" t="n">
-        <v>68.40000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>68.28500000000005</v>
-      </c>
-      <c r="N63" t="n">
-        <v>68.24000000000001</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,49 +2931,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>68.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>68.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="D64" t="n">
-        <v>68.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="E64" t="n">
-        <v>68.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>2915.451895043732</v>
+        <v>1500</v>
       </c>
       <c r="G64" t="n">
-        <v>68.15166666666669</v>
+        <v>466112.4672651471</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>12.00000000000003</v>
-      </c>
-      <c r="K64" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L64" t="n">
-        <v>68.44000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>68.32000000000004</v>
-      </c>
-      <c r="N64" t="n">
-        <v>68.26000000000001</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,49 +2966,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="C65" t="n">
-        <v>68.3</v>
+        <v>68.7</v>
       </c>
       <c r="D65" t="n">
-        <v>68.3</v>
+        <v>68.7</v>
       </c>
       <c r="E65" t="n">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="F65" t="n">
-        <v>285.5576</v>
+        <v>8061.9311</v>
       </c>
       <c r="G65" t="n">
-        <v>68.16000000000003</v>
+        <v>474174.3983651471</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J65" t="n">
-        <v>12.30000000000003</v>
-      </c>
-      <c r="K65" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L65" t="n">
-        <v>68.47000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>68.34000000000003</v>
-      </c>
-      <c r="N65" t="n">
-        <v>68.24666666666668</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,46 +3004,30 @@
         <v>68.3</v>
       </c>
       <c r="C66" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D66" t="n">
         <v>68.3</v>
       </c>
       <c r="E66" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>5005.1177</v>
+        <v>98171.67419999999</v>
       </c>
       <c r="G66" t="n">
-        <v>68.16666666666669</v>
+        <v>376002.7241651471</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J66" t="n">
-        <v>12.40000000000002</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-17.64705882352951</v>
-      </c>
-      <c r="L66" t="n">
-        <v>68.49000000000004</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>68.35000000000004</v>
-      </c>
-      <c r="N66" t="n">
-        <v>68.25000000000001</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,49 +3036,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68.5</v>
+        <v>68.2</v>
       </c>
       <c r="C67" t="n">
-        <v>68.5</v>
+        <v>68.2</v>
       </c>
       <c r="D67" t="n">
-        <v>68.5</v>
+        <v>68.2</v>
       </c>
       <c r="E67" t="n">
-        <v>68.5</v>
+        <v>68.2</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>695</v>
       </c>
       <c r="G67" t="n">
-        <v>68.18000000000002</v>
+        <v>376697.7241651471</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J67" t="n">
-        <v>12.70000000000002</v>
-      </c>
-      <c r="K67" t="n">
-        <v>5.263157894736606</v>
-      </c>
-      <c r="L67" t="n">
-        <v>68.49000000000004</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>68.38500000000003</v>
-      </c>
-      <c r="N67" t="n">
-        <v>68.26000000000002</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,49 +3071,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>15114.2659</v>
+        <v>3400</v>
       </c>
       <c r="G68" t="n">
-        <v>68.19666666666669</v>
+        <v>373297.7241651471</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J68" t="n">
-        <v>12.90000000000002</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-22.22222222222275</v>
-      </c>
-      <c r="L68" t="n">
-        <v>68.48000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>68.38000000000002</v>
-      </c>
-      <c r="N68" t="n">
-        <v>68.26666666666668</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,7 +3106,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>68.3</v>
@@ -3751,40 +3115,24 @@
         <v>68.3</v>
       </c>
       <c r="E69" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="G69" t="n">
-        <v>68.20666666666669</v>
+        <v>373797.7241651471</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J69" t="n">
-        <v>12.90000000000002</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-22.22222222222275</v>
-      </c>
-      <c r="L69" t="n">
-        <v>68.44000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>68.38500000000002</v>
-      </c>
-      <c r="N69" t="n">
-        <v>68.26666666666668</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,49 +3141,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68.2</v>
+        <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="D70" t="n">
-        <v>68.2</v>
+        <v>68.3</v>
       </c>
       <c r="E70" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>62676.929</v>
+        <v>5010</v>
       </c>
       <c r="G70" t="n">
-        <v>68.20666666666669</v>
+        <v>373797.7241651471</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J70" t="n">
-        <v>13.20000000000002</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-33.33333333333378</v>
-      </c>
-      <c r="L70" t="n">
-        <v>68.37000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>68.36500000000002</v>
-      </c>
-      <c r="N70" t="n">
-        <v>68.25666666666669</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,49 +3176,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="C71" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="D71" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="E71" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="F71" t="n">
-        <v>8602.5414</v>
+        <v>11885.544</v>
       </c>
       <c r="G71" t="n">
-        <v>68.20333333333336</v>
+        <v>361912.1801651471</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J71" t="n">
-        <v>13.20000000000002</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-12.50000000000033</v>
-      </c>
-      <c r="L71" t="n">
-        <v>68.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>68.34500000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>68.26666666666669</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3907,37 +3223,21 @@
         <v>68</v>
       </c>
       <c r="F72" t="n">
-        <v>11199.2</v>
+        <v>128.9421</v>
       </c>
       <c r="G72" t="n">
-        <v>68.19833333333335</v>
+        <v>362041.122265147</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J72" t="n">
-        <v>13.20000000000002</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L72" t="n">
-        <v>68.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>68.32500000000002</v>
-      </c>
-      <c r="N72" t="n">
-        <v>68.26666666666669</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,49 +3246,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>1205.7299</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>68.19500000000002</v>
+        <v>362051.122265147</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J73" t="n">
-        <v>13.20000000000002</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L73" t="n">
-        <v>68.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>68.31000000000002</v>
-      </c>
-      <c r="N73" t="n">
-        <v>68.26333333333336</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,49 +3281,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>988.7418</v>
+        <v>459.2897</v>
       </c>
       <c r="G74" t="n">
-        <v>68.19000000000003</v>
+        <v>361591.832565147</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J74" t="n">
-        <v>13.20000000000002</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L74" t="n">
-        <v>68.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>68.30000000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>68.26666666666669</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,49 +3316,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>2778</v>
+        <v>568.4752</v>
       </c>
       <c r="G75" t="n">
-        <v>68.18166666666669</v>
+        <v>361591.832565147</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J75" t="n">
-        <v>13.20000000000002</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-25.00000000000044</v>
-      </c>
-      <c r="L75" t="n">
-        <v>68.13000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>68.30000000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>68.27000000000002</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4111,37 +3363,21 @@
         <v>68</v>
       </c>
       <c r="F76" t="n">
-        <v>3000</v>
+        <v>1349</v>
       </c>
       <c r="G76" t="n">
-        <v>68.17833333333336</v>
+        <v>362940.832565147</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J76" t="n">
-        <v>13.20000000000002</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L76" t="n">
-        <v>68.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>68.30000000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>68.27000000000002</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,49 +3386,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="C77" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="D77" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="E77" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="F77" t="n">
-        <v>1318.7432</v>
+        <v>1448.1504</v>
       </c>
       <c r="G77" t="n">
-        <v>68.17000000000003</v>
+        <v>361492.682165147</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J77" t="n">
-        <v>13.20000000000002</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L77" t="n">
-        <v>68.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>68.27500000000001</v>
-      </c>
-      <c r="N77" t="n">
-        <v>68.27666666666669</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4201,49 +3421,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="C78" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="F78" t="n">
-        <v>760.7195</v>
+        <v>23156.2483</v>
       </c>
       <c r="G78" t="n">
-        <v>68.16166666666669</v>
+        <v>384648.930465147</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J78" t="n">
-        <v>13.20000000000002</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L78" t="n">
-        <v>68.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>68.25500000000001</v>
-      </c>
-      <c r="N78" t="n">
-        <v>68.26333333333335</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,47 +3456,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="C79" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="D79" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="E79" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="F79" t="n">
-        <v>10431.9872</v>
+        <v>2596.0447</v>
       </c>
       <c r="G79" t="n">
-        <v>68.15333333333336</v>
+        <v>382052.885765147</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J79" t="n">
-        <v>13.20000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>68.00000000000001</v>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>68.22</v>
-      </c>
-      <c r="N79" t="n">
-        <v>68.25666666666669</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4301,49 +3491,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>57762.7069</v>
+        <v>1597.0302</v>
       </c>
       <c r="G80" t="n">
-        <v>68.13333333333337</v>
+        <v>383649.915965147</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J80" t="n">
-        <v>13.70000000000002</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L80" t="n">
-        <v>67.95000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>68.16</v>
-      </c>
-      <c r="N80" t="n">
-        <v>68.22666666666669</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,49 +3526,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>36589.4467</v>
+        <v>908.9597</v>
       </c>
       <c r="G81" t="n">
-        <v>68.12333333333336</v>
+        <v>383649.915965147</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="J81" t="n">
-        <v>14.10000000000002</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-11.11111111111041</v>
-      </c>
-      <c r="L81" t="n">
-        <v>67.94000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>68.12</v>
-      </c>
-      <c r="N81" t="n">
-        <v>68.21000000000002</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,49 +3561,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>38366.3688</v>
+        <v>7330.5907</v>
       </c>
       <c r="G82" t="n">
-        <v>68.11333333333336</v>
+        <v>383649.915965147</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="J82" t="n">
-        <v>14.10000000000002</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-11.11111111111041</v>
-      </c>
-      <c r="L82" t="n">
-        <v>67.93000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>68.105</v>
-      </c>
-      <c r="N82" t="n">
-        <v>68.19333333333336</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,49 +3596,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="C83" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="D83" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="E83" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="F83" t="n">
-        <v>4152.4</v>
+        <v>790</v>
       </c>
       <c r="G83" t="n">
-        <v>68.10166666666669</v>
+        <v>382859.915965147</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J83" t="n">
-        <v>14.20000000000002</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>67.93000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>68.07500000000002</v>
-      </c>
-      <c r="N83" t="n">
-        <v>68.18333333333335</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4505,49 +3631,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="C84" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="D84" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="E84" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="F84" t="n">
-        <v>1646.1399</v>
+        <v>10903.6269</v>
       </c>
       <c r="G84" t="n">
-        <v>68.10166666666669</v>
+        <v>371956.289065147</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J84" t="n">
-        <v>14.20000000000002</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>67.93000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>68.04500000000002</v>
-      </c>
-      <c r="N84" t="n">
-        <v>68.17666666666669</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4556,49 +3666,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="D85" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="F85" t="n">
-        <v>4973.3905</v>
+        <v>3130</v>
       </c>
       <c r="G85" t="n">
-        <v>68.09000000000002</v>
+        <v>368826.289065147</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J85" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-41.17647058823539</v>
-      </c>
-      <c r="L85" t="n">
-        <v>67.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>67.99500000000002</v>
-      </c>
-      <c r="N85" t="n">
-        <v>68.15333333333336</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4607,49 +3701,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="C86" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="D86" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="E86" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="F86" t="n">
-        <v>35433.7414</v>
+        <v>8239.550499999999</v>
       </c>
       <c r="G86" t="n">
-        <v>68.08333333333336</v>
+        <v>368826.289065147</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J86" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-41.17647058823539</v>
-      </c>
-      <c r="L86" t="n">
-        <v>67.78999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>67.95000000000002</v>
-      </c>
-      <c r="N86" t="n">
-        <v>68.13000000000004</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4658,49 +3736,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>67.3</v>
+        <v>68.5</v>
       </c>
       <c r="D87" t="n">
-        <v>67.3</v>
+        <v>68.5</v>
       </c>
       <c r="E87" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>1225.9999</v>
+        <v>3440.7298</v>
       </c>
       <c r="G87" t="n">
-        <v>68.07833333333336</v>
+        <v>372267.018865147</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J87" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-41.17647058823539</v>
-      </c>
-      <c r="L87" t="n">
-        <v>67.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>67.89000000000001</v>
-      </c>
-      <c r="N87" t="n">
-        <v>68.09000000000005</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4709,49 +3771,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>593.8596</v>
+        <v>710</v>
       </c>
       <c r="G88" t="n">
-        <v>68.07333333333337</v>
+        <v>371557.018865147</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J88" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-41.17647058823539</v>
-      </c>
-      <c r="L88" t="n">
-        <v>67.64999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>67.84</v>
-      </c>
-      <c r="N88" t="n">
-        <v>68.05333333333337</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4760,49 +3806,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="D89" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="E89" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>6973.1567</v>
+        <v>438</v>
       </c>
       <c r="G89" t="n">
-        <v>68.06500000000003</v>
+        <v>371995.018865147</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J89" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-16.66666666666686</v>
-      </c>
-      <c r="L89" t="n">
-        <v>67.57999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>67.79000000000001</v>
-      </c>
-      <c r="N89" t="n">
-        <v>68.00666666666672</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4811,49 +3841,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="C90" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="D90" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="E90" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="F90" t="n">
-        <v>2142</v>
+        <v>620</v>
       </c>
       <c r="G90" t="n">
-        <v>68.05500000000002</v>
+        <v>371995.018865147</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J90" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-75.00000000000134</v>
-      </c>
-      <c r="L90" t="n">
-        <v>67.55999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>67.75500000000001</v>
-      </c>
-      <c r="N90" t="n">
-        <v>67.96000000000005</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,49 +3876,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>67.2</v>
+        <v>68.7</v>
       </c>
       <c r="C91" t="n">
-        <v>67.2</v>
+        <v>68.7</v>
       </c>
       <c r="D91" t="n">
-        <v>67.2</v>
+        <v>68.7</v>
       </c>
       <c r="E91" t="n">
-        <v>67.2</v>
+        <v>68.7</v>
       </c>
       <c r="F91" t="n">
-        <v>3363.269</v>
+        <v>7897.2983</v>
       </c>
       <c r="G91" t="n">
-        <v>68.04500000000003</v>
+        <v>371995.018865147</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J91" t="n">
-        <v>15.00000000000001</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-77.77777777777884</v>
-      </c>
-      <c r="L91" t="n">
-        <v>67.48999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>67.715</v>
-      </c>
-      <c r="N91" t="n">
-        <v>67.91000000000004</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4913,49 +3911,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>67.3</v>
+        <v>68.2</v>
       </c>
       <c r="C92" t="n">
-        <v>67.3</v>
+        <v>68.2</v>
       </c>
       <c r="D92" t="n">
-        <v>67.3</v>
+        <v>68.2</v>
       </c>
       <c r="E92" t="n">
-        <v>67.3</v>
+        <v>68.2</v>
       </c>
       <c r="F92" t="n">
-        <v>7643.4992</v>
+        <v>9273.248799999999</v>
       </c>
       <c r="G92" t="n">
-        <v>68.0416666666667</v>
+        <v>362721.770065147</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J92" t="n">
-        <v>15.10000000000001</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-77.77777777777884</v>
-      </c>
-      <c r="L92" t="n">
-        <v>67.42999999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>67.68000000000001</v>
-      </c>
-      <c r="N92" t="n">
-        <v>67.88000000000004</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,49 +3946,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>67.3</v>
+        <v>68.5</v>
       </c>
       <c r="C93" t="n">
-        <v>67.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>67.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>67.3</v>
+        <v>68.5</v>
       </c>
       <c r="F93" t="n">
-        <v>623.4164</v>
+        <v>11555.5628</v>
       </c>
       <c r="G93" t="n">
-        <v>68.03833333333337</v>
+        <v>374277.332865147</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J93" t="n">
-        <v>15.10000000000001</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-77.77777777777884</v>
-      </c>
-      <c r="L93" t="n">
-        <v>67.35999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>67.64500000000001</v>
-      </c>
-      <c r="N93" t="n">
-        <v>67.83666666666672</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5015,49 +3981,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>67.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>67.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>67.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>67.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>1156.8314</v>
+        <v>2915.451895043732</v>
       </c>
       <c r="G94" t="n">
-        <v>68.02500000000003</v>
+        <v>374277.332865147</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J94" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L94" t="n">
-        <v>67.27999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>67.605</v>
-      </c>
-      <c r="N94" t="n">
-        <v>67.79000000000003</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5066,49 +4016,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="C95" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="D95" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="E95" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="F95" t="n">
-        <v>16.0714</v>
+        <v>285.5576</v>
       </c>
       <c r="G95" t="n">
-        <v>68.00000000000003</v>
+        <v>373991.775265147</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J95" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L95" t="n">
-        <v>67.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>67.56500000000001</v>
-      </c>
-      <c r="N95" t="n">
-        <v>67.75333333333337</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5117,49 +4051,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>67.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="C96" t="n">
-        <v>67.2</v>
+        <v>68.2</v>
       </c>
       <c r="D96" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="E96" t="n">
-        <v>67.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="F96" t="n">
-        <v>2673.6356</v>
+        <v>5005.1177</v>
       </c>
       <c r="G96" t="n">
-        <v>67.98500000000003</v>
+        <v>368986.657565147</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J96" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L96" t="n">
-        <v>67.26000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>67.52500000000001</v>
-      </c>
-      <c r="N96" t="n">
-        <v>67.72000000000004</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,49 +4086,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>67.2</v>
+        <v>68.5</v>
       </c>
       <c r="C97" t="n">
-        <v>67.3</v>
+        <v>68.5</v>
       </c>
       <c r="D97" t="n">
-        <v>67.3</v>
+        <v>68.5</v>
       </c>
       <c r="E97" t="n">
-        <v>67.2</v>
+        <v>68.5</v>
       </c>
       <c r="F97" t="n">
-        <v>3400</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>67.97000000000003</v>
+        <v>368996.657565147</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J97" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>67.26000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>67.49000000000001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>67.68000000000004</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5219,49 +4121,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="C98" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="D98" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="E98" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="F98" t="n">
-        <v>1890</v>
+        <v>15114.2659</v>
       </c>
       <c r="G98" t="n">
-        <v>67.95500000000003</v>
+        <v>353882.391665147</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J98" t="n">
-        <v>15.39999999999999</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L98" t="n">
-        <v>67.25000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>67.45000000000002</v>
-      </c>
-      <c r="N98" t="n">
-        <v>67.64333333333336</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5270,49 +4156,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>67.3</v>
+        <v>68.2</v>
       </c>
       <c r="C99" t="n">
-        <v>67.3</v>
+        <v>68.3</v>
       </c>
       <c r="D99" t="n">
-        <v>67.3</v>
+        <v>68.3</v>
       </c>
       <c r="E99" t="n">
-        <v>67.3</v>
+        <v>68.2</v>
       </c>
       <c r="F99" t="n">
-        <v>1080.9999</v>
+        <v>451</v>
       </c>
       <c r="G99" t="n">
-        <v>67.93833333333335</v>
+        <v>353882.391665147</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J99" t="n">
-        <v>15.49999999999999</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>67.25000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>67.41500000000001</v>
-      </c>
-      <c r="N99" t="n">
-        <v>67.61000000000003</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5321,49 +4191,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>67.3</v>
+        <v>68.2</v>
       </c>
       <c r="C100" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="D100" t="n">
-        <v>67.3</v>
+        <v>68.2</v>
       </c>
       <c r="E100" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="F100" t="n">
-        <v>41381.0401</v>
+        <v>62676.929</v>
       </c>
       <c r="G100" t="n">
-        <v>67.92166666666668</v>
+        <v>291205.462665147</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J100" t="n">
-        <v>15.49999999999999</v>
-      </c>
-      <c r="K100" t="n">
-        <v>20</v>
-      </c>
-      <c r="L100" t="n">
-        <v>67.25000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>67.405</v>
-      </c>
-      <c r="N100" t="n">
-        <v>67.58666666666669</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5372,49 +4226,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="C101" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="D101" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="E101" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="F101" t="n">
-        <v>14.5945</v>
+        <v>8602.5414</v>
       </c>
       <c r="G101" t="n">
-        <v>67.91500000000002</v>
+        <v>291205.462665147</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J101" t="n">
-        <v>15.49999999999999</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>67.26000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>67.375</v>
-      </c>
-      <c r="N101" t="n">
-        <v>67.56333333333336</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5423,49 +4261,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>67.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="C102" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="D102" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="E102" t="n">
-        <v>67.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="F102" t="n">
-        <v>9010</v>
+        <v>11199.2</v>
       </c>
       <c r="G102" t="n">
-        <v>67.91000000000003</v>
+        <v>291205.462665147</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J102" t="n">
-        <v>15.89999999999999</v>
-      </c>
-      <c r="K102" t="n">
-        <v>50.00000000000178</v>
-      </c>
-      <c r="L102" t="n">
-        <v>67.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>67.36499999999999</v>
-      </c>
-      <c r="N102" t="n">
-        <v>67.55333333333336</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,49 +4296,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="C103" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="D103" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="E103" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="F103" t="n">
-        <v>6386.3873</v>
+        <v>1205.7299</v>
       </c>
       <c r="G103" t="n">
-        <v>67.89666666666669</v>
+        <v>291205.462665147</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J103" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K103" t="n">
-        <v>9.090909090908621</v>
-      </c>
-      <c r="L103" t="n">
-        <v>67.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>67.33</v>
-      </c>
-      <c r="N103" t="n">
-        <v>67.53000000000003</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5525,49 +4331,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="C104" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="D104" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="E104" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="F104" t="n">
-        <v>682.4</v>
+        <v>988.7418</v>
       </c>
       <c r="G104" t="n">
-        <v>67.89333333333336</v>
+        <v>291205.462665147</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J104" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K104" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L104" t="n">
-        <v>67.35000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>67.315</v>
-      </c>
-      <c r="N104" t="n">
-        <v>67.52000000000002</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,49 +4366,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="C105" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="D105" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="E105" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="F105" t="n">
-        <v>712.253</v>
+        <v>2778</v>
       </c>
       <c r="G105" t="n">
-        <v>67.89000000000003</v>
+        <v>291205.462665147</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J105" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K105" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L105" t="n">
-        <v>67.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>67.33500000000001</v>
-      </c>
-      <c r="N105" t="n">
-        <v>67.51000000000002</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5627,49 +4401,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="C106" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="D106" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="E106" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="F106" t="n">
-        <v>11990</v>
+        <v>3000</v>
       </c>
       <c r="G106" t="n">
-        <v>67.8866666666667</v>
+        <v>291205.462665147</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J106" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K106" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L106" t="n">
-        <v>67.46000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>67.36</v>
-      </c>
-      <c r="N106" t="n">
-        <v>67.50333333333336</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5678,49 +4436,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="C107" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="D107" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="E107" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="F107" t="n">
-        <v>12460</v>
+        <v>1318.7432</v>
       </c>
       <c r="G107" t="n">
-        <v>67.8866666666667</v>
+        <v>291205.462665147</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J107" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K107" t="n">
-        <v>42.85714285714228</v>
-      </c>
-      <c r="L107" t="n">
-        <v>67.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>67.38500000000001</v>
-      </c>
-      <c r="N107" t="n">
-        <v>67.4966666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5729,7 +4471,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="C108" t="n">
         <v>68</v>
@@ -5738,40 +4480,24 @@
         <v>68</v>
       </c>
       <c r="E108" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="F108" t="n">
-        <v>22000</v>
+        <v>760.7195</v>
       </c>
       <c r="G108" t="n">
-        <v>67.88000000000002</v>
+        <v>291205.462665147</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J108" t="n">
-        <v>17</v>
-      </c>
-      <c r="K108" t="n">
-        <v>46.66666666666642</v>
-      </c>
-      <c r="L108" t="n">
-        <v>67.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>67.42</v>
-      </c>
-      <c r="N108" t="n">
-        <v>67.4966666666667</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5792,37 +4518,21 @@
         <v>68</v>
       </c>
       <c r="F109" t="n">
-        <v>3890</v>
+        <v>10431.9872</v>
       </c>
       <c r="G109" t="n">
-        <v>67.87666666666669</v>
+        <v>291205.462665147</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J109" t="n">
-        <v>17</v>
-      </c>
-      <c r="K109" t="n">
-        <v>46.66666666666642</v>
-      </c>
-      <c r="L109" t="n">
-        <v>67.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>67.45500000000001</v>
-      </c>
-      <c r="N109" t="n">
-        <v>67.4966666666667</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5834,46 +4544,695 @@
         <v>68</v>
       </c>
       <c r="C110" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="D110" t="n">
         <v>68</v>
       </c>
       <c r="E110" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="F110" t="n">
-        <v>41577.8823</v>
+        <v>57762.7069</v>
       </c>
       <c r="G110" t="n">
-        <v>67.87000000000002</v>
+        <v>233442.755765147</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J110" t="n">
-        <v>17</v>
-      </c>
-      <c r="K110" t="n">
-        <v>46.66666666666642</v>
-      </c>
-      <c r="L110" t="n">
-        <v>67.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>67.49000000000001</v>
-      </c>
-      <c r="N110" t="n">
-        <v>67.51333333333336</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C111" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D111" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="E111" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F111" t="n">
+        <v>36589.4467</v>
+      </c>
+      <c r="G111" t="n">
+        <v>270032.202465147</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C112" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D112" t="n">
+        <v>68</v>
+      </c>
+      <c r="E112" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F112" t="n">
+        <v>38366.3688</v>
+      </c>
+      <c r="G112" t="n">
+        <v>270032.202465147</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>68</v>
+      </c>
+      <c r="C113" t="n">
+        <v>68</v>
+      </c>
+      <c r="D113" t="n">
+        <v>68</v>
+      </c>
+      <c r="E113" t="n">
+        <v>68</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4152.4</v>
+      </c>
+      <c r="G113" t="n">
+        <v>274184.602465147</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>68</v>
+      </c>
+      <c r="C114" t="n">
+        <v>68</v>
+      </c>
+      <c r="D114" t="n">
+        <v>68</v>
+      </c>
+      <c r="E114" t="n">
+        <v>68</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1646.1399</v>
+      </c>
+      <c r="G114" t="n">
+        <v>274184.602465147</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C115" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4973.3905</v>
+      </c>
+      <c r="G115" t="n">
+        <v>269211.2119651471</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>35433.7414</v>
+      </c>
+      <c r="G116" t="n">
+        <v>269211.2119651471</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1225.9999</v>
+      </c>
+      <c r="G117" t="n">
+        <v>269211.2119651471</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D118" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E118" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F118" t="n">
+        <v>593.8596</v>
+      </c>
+      <c r="G118" t="n">
+        <v>269211.2119651471</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D119" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E119" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>6973.1567</v>
+      </c>
+      <c r="G119" t="n">
+        <v>269211.2119651471</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2142</v>
+      </c>
+      <c r="G120" t="n">
+        <v>269211.2119651471</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3363.269</v>
+      </c>
+      <c r="G121" t="n">
+        <v>265847.9429651471</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E122" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7643.4992</v>
+      </c>
+      <c r="G122" t="n">
+        <v>273491.4421651471</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>623.4164</v>
+      </c>
+      <c r="G123" t="n">
+        <v>273491.4421651471</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1156.8314</v>
+      </c>
+      <c r="G124" t="n">
+        <v>272334.6107651471</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C125" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>16.0714</v>
+      </c>
+      <c r="G125" t="n">
+        <v>272334.6107651471</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2673.6356</v>
+      </c>
+      <c r="G126" t="n">
+        <v>272334.6107651471</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G127" t="n">
+        <v>275734.6107651471</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1890</v>
+      </c>
+      <c r="G128" t="n">
+        <v>273844.6107651471</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C129" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E129" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1080.9999</v>
+      </c>
+      <c r="G129" t="n">
+        <v>274925.6106651471</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-22 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-22 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,6 +507,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -544,6 +551,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -587,6 +595,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -626,6 +635,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -669,6 +679,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -712,6 +723,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -755,6 +767,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -798,6 +811,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -841,6 +855,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,6 +899,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -925,6 +941,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -966,6 +983,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1007,6 +1025,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1048,6 +1067,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1089,6 +1109,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1130,6 +1151,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1171,6 +1193,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1212,6 +1235,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1253,6 +1277,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1294,6 +1319,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1335,6 +1361,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1376,6 +1403,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1417,6 +1445,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1458,6 +1487,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1499,6 +1529,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1540,6 +1571,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1581,6 +1613,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1622,6 +1655,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1663,6 +1697,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1704,6 +1739,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1747,6 +1783,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1788,6 +1825,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1829,6 +1867,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1870,6 +1909,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1911,6 +1951,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1952,6 +1993,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1993,6 +2035,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2036,6 +2079,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2077,6 +2121,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2118,6 +2163,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2159,6 +2205,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2200,6 +2247,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2241,6 +2289,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2282,6 +2331,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2323,6 +2373,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2364,6 +2415,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2405,6 +2457,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2446,6 +2499,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2473,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
@@ -2481,10 +2535,13 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M51" t="n">
+        <v>1.018916292974589</v>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,20 +2571,15 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2555,20 +2607,15 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2599,17 +2646,12 @@
         <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>1.01144245142003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2637,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2645,6 +2687,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2672,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2680,6 +2723,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2715,6 +2759,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2750,6 +2795,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2785,6 +2831,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2820,6 +2867,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2847,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2855,6 +2903,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2882,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2890,6 +2939,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2917,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2925,6 +2975,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2960,6 +3011,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2995,6 +3047,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3030,6 +3083,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3065,6 +3119,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3092,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3100,6 +3155,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3127,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3135,6 +3191,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3162,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3170,6 +3227,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3197,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3205,6 +3263,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3240,6 +3299,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3267,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3275,6 +3335,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3302,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3310,6 +3371,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3337,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3345,6 +3407,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3380,6 +3443,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3415,6 +3479,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3450,6 +3515,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3477,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3485,6 +3551,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3512,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3520,6 +3587,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3555,6 +3623,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3590,6 +3659,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3625,6 +3695,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3652,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3660,6 +3731,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3687,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3695,6 +3767,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3730,6 +3803,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3765,6 +3839,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3792,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3800,6 +3875,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3827,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3835,6 +3911,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3862,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3870,6 +3947,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3897,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3905,6 +3983,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3940,6 +4019,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3967,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3975,6 +4055,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4010,6 +4091,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4045,6 +4127,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4080,6 +4163,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4115,6 +4199,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4150,6 +4235,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4185,6 +4271,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4220,6 +4307,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4247,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4255,6 +4343,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4282,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4290,6 +4379,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4325,6 +4415,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4360,6 +4451,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4395,6 +4487,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4422,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4430,6 +4523,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4457,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4465,6 +4559,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4492,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4500,6 +4595,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4527,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4535,6 +4631,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4562,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4570,6 +4667,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4605,6 +4703,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4640,6 +4739,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4675,6 +4775,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4710,6 +4811,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4745,6 +4847,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4780,6 +4883,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4815,6 +4919,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4850,6 +4955,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4885,6 +4991,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4920,6 +5027,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4955,6 +5063,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4990,6 +5099,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5025,6 +5135,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5060,6 +5171,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5095,6 +5207,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5130,6 +5243,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5165,6 +5279,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5200,6 +5315,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5235,6 +5351,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-22 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-22 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="C2" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>4292.7337</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>47939.4188</v>
+        <v>30390.37110000001</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>66.90000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>66.90000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>66.90000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>66.90000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>47939.4188</v>
+        <v>30380.37110000001</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="K3" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -526,10 +526,10 @@
         <v>66.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>23154.3558</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>47939.4188</v>
+        <v>30390.37110000001</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>66.90000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.90000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>66.90000000000001</v>
@@ -567,13 +567,13 @@
         <v>66.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>66.90000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>4880.52315710015</v>
+        <v>3010</v>
       </c>
       <c r="G5" t="n">
-        <v>47939.4188</v>
+        <v>30390.37110000001</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -585,11 +585,11 @@
         <v>66.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -614,10 +614,10 @@
         <v>66.90000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>5110</v>
+        <v>189.3177</v>
       </c>
       <c r="G6" t="n">
-        <v>47939.4188</v>
+        <v>30390.37110000001</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -629,9 +629,13 @@
         <v>66.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -642,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="C7" t="n">
         <v>67</v>
@@ -651,13 +655,13 @@
         <v>67</v>
       </c>
       <c r="E7" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>293.194</v>
       </c>
       <c r="G7" t="n">
-        <v>47949.4188</v>
+        <v>30683.56510000001</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -669,11 +673,11 @@
         <v>66.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -686,34 +690,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="C8" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="E8" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="F8" t="n">
-        <v>1606.6086</v>
+        <v>2780</v>
       </c>
       <c r="G8" t="n">
-        <v>47949.4188</v>
+        <v>27903.56510000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>67</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -730,34 +732,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="C9" t="n">
-        <v>67</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="E9" t="n">
-        <v>67</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>1659.9749</v>
+        <v>9032</v>
       </c>
       <c r="G9" t="n">
-        <v>47949.4188</v>
+        <v>18871.56510000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>67</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -774,22 +774,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>67</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>67</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>4.2899850523169e-05</v>
+        <v>11290.1172</v>
       </c>
       <c r="G10" t="n">
-        <v>47949.4188</v>
+        <v>30161.68230000001</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>67</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -818,22 +818,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="C11" t="n">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="D11" t="n">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="E11" t="n">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="F11" t="n">
-        <v>217.4605</v>
+        <v>2068.9769</v>
       </c>
       <c r="G11" t="n">
-        <v>48166.8793</v>
+        <v>28092.70540000001</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>67</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -862,22 +862,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67.3</v>
+        <v>66.7</v>
       </c>
       <c r="C12" t="n">
-        <v>67.3</v>
+        <v>66.7</v>
       </c>
       <c r="D12" t="n">
-        <v>67.3</v>
+        <v>66.7</v>
       </c>
       <c r="E12" t="n">
-        <v>67.3</v>
+        <v>66.7</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>2010</v>
       </c>
       <c r="G12" t="n">
-        <v>48176.8793</v>
+        <v>30102.70540000001</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="K12" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -906,32 +906,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>67.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>67.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>67.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>205.974</v>
+        <v>1660</v>
       </c>
       <c r="G13" t="n">
-        <v>48382.8533</v>
+        <v>28442.70540000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>66.7</v>
+      </c>
       <c r="K13" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -948,32 +950,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>569.9</v>
+        <v>560</v>
       </c>
       <c r="G14" t="n">
-        <v>47812.9533</v>
+        <v>28442.70540000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="K14" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -990,32 +994,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="C15" t="n">
-        <v>67.40000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D15" t="n">
-        <v>67.40000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E15" t="n">
-        <v>67.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>32897.6829</v>
       </c>
       <c r="G15" t="n">
-        <v>47822.9533</v>
+        <v>61340.38830000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="K15" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1032,32 +1038,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="C16" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="D16" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="F16" t="n">
-        <v>8202.3431</v>
+        <v>4502.0284</v>
       </c>
       <c r="G16" t="n">
-        <v>39620.6102</v>
+        <v>65842.4167</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>66.8</v>
+      </c>
       <c r="K16" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1074,32 +1082,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="D17" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="F17" t="n">
-        <v>9962.054700000001</v>
+        <v>640</v>
       </c>
       <c r="G17" t="n">
-        <v>49582.6649</v>
+        <v>65842.4167</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>67</v>
+      </c>
       <c r="K17" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1116,32 +1126,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="C18" t="n">
-        <v>67.8</v>
+        <v>67</v>
       </c>
       <c r="D18" t="n">
-        <v>67.8</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>1550</v>
       </c>
       <c r="G18" t="n">
-        <v>59582.6649</v>
+        <v>65842.4167</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>67</v>
+      </c>
       <c r="K18" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1158,22 +1170,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>67.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>7920</v>
+        <v>5000</v>
       </c>
       <c r="G19" t="n">
-        <v>51662.6649</v>
+        <v>60842.4167</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1183,7 +1195,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1200,32 +1212,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>67.5</v>
+        <v>67</v>
       </c>
       <c r="D20" t="n">
-        <v>67.5</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
-        <v>67.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>57599.2592</v>
+        <v>2087.0021</v>
       </c>
       <c r="G20" t="n">
-        <v>-5936.594299999997</v>
+        <v>62929.4188</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K20" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1242,32 +1256,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>67.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>67.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>67.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>67.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>3629.0559</v>
+        <v>10000</v>
       </c>
       <c r="G21" t="n">
-        <v>-9565.650199999996</v>
+        <v>52929.4188</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>67</v>
+      </c>
       <c r="K21" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1284,32 +1300,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>67.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>67.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>67.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>67.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>12076.6666</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="n">
-        <v>2511.016400000004</v>
+        <v>52929.4188</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K22" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1326,32 +1344,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>4999.9999</v>
+        <v>1500</v>
       </c>
       <c r="G23" t="n">
-        <v>7511.016300000004</v>
+        <v>52929.4188</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K23" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1368,32 +1388,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>780</v>
+        <v>9736.5465</v>
       </c>
       <c r="G24" t="n">
-        <v>8291.016300000003</v>
+        <v>52929.4188</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K24" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1410,32 +1432,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="D25" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="E25" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="F25" t="n">
-        <v>485.9271</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>8291.016300000003</v>
+        <v>52939.4188</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K25" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1452,32 +1476,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="C26" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="D26" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="F26" t="n">
-        <v>717</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>8291.016300000003</v>
+        <v>52939.4188</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>67</v>
+      </c>
       <c r="K26" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1494,32 +1520,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>67.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="C27" t="n">
-        <v>67.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="D27" t="n">
-        <v>67.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="E27" t="n">
-        <v>67.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="F27" t="n">
-        <v>790</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>7501.016300000003</v>
+        <v>52939.4188</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>67</v>
+      </c>
       <c r="K27" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1536,22 +1564,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="C28" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="D28" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="E28" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="F28" t="n">
-        <v>5981.9751</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>1519.041200000003</v>
+        <v>52939.4188</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1561,7 +1589,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1578,32 +1606,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>67.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="C29" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="D29" t="n">
-        <v>67.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="E29" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="F29" t="n">
-        <v>270.2416</v>
+        <v>1026.7761</v>
       </c>
       <c r="G29" t="n">
-        <v>1248.799600000003</v>
+        <v>52939.4188</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>67</v>
+      </c>
       <c r="K29" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1620,32 +1650,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>67.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>67.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>67.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>9628.642</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="n">
-        <v>1248.799600000003</v>
+        <v>47939.4188</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>67</v>
+      </c>
       <c r="K30" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1662,32 +1694,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>67.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>67.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>67.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>67.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>4000</v>
+        <v>4292.7337</v>
       </c>
       <c r="G31" t="n">
-        <v>1248.799600000003</v>
+        <v>47939.4188</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K31" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1704,32 +1738,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>67.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>67.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>32940</v>
+        <v>10000</v>
       </c>
       <c r="G32" t="n">
-        <v>34188.79960000001</v>
+        <v>47939.4188</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K32" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1746,22 +1782,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>10010</v>
+        <v>23154.3558</v>
       </c>
       <c r="G33" t="n">
-        <v>44198.79960000001</v>
+        <v>47939.4188</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1770,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>67.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1790,32 +1826,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>12000</v>
+        <v>4880.52315710015</v>
       </c>
       <c r="G34" t="n">
-        <v>56198.79960000001</v>
+        <v>47939.4188</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K34" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1832,32 +1870,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>67.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>17400</v>
+        <v>5110</v>
       </c>
       <c r="G35" t="n">
-        <v>56198.79960000001</v>
+        <v>47939.4188</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K35" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1874,32 +1914,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>67.8</v>
+        <v>67</v>
       </c>
       <c r="D36" t="n">
-        <v>67.8</v>
+        <v>67</v>
       </c>
       <c r="E36" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>6383.1716</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>56198.79960000001</v>
+        <v>47949.4188</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K36" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1916,32 +1958,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="C37" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="D37" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="E37" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="F37" t="n">
-        <v>1000</v>
+        <v>1606.6086</v>
       </c>
       <c r="G37" t="n">
-        <v>55198.79960000001</v>
+        <v>47949.4188</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>67</v>
+      </c>
       <c r="K37" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1958,32 +2002,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="C38" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="D38" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="E38" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="F38" t="n">
-        <v>3353.7505</v>
+        <v>1659.9749</v>
       </c>
       <c r="G38" t="n">
-        <v>51845.0491</v>
+        <v>47949.4188</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>67</v>
+      </c>
       <c r="K38" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2000,32 +2046,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>67.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="C39" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="D39" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="E39" t="n">
-        <v>67.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="F39" t="n">
-        <v>1571.5268</v>
+        <v>4.2899850523169e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>53416.5759</v>
+        <v>47949.4188</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>67</v>
+      </c>
       <c r="K39" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2042,22 +2090,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>67.7</v>
+        <v>67.2</v>
       </c>
       <c r="C40" t="n">
-        <v>68</v>
+        <v>67.2</v>
       </c>
       <c r="D40" t="n">
-        <v>68</v>
+        <v>67.2</v>
       </c>
       <c r="E40" t="n">
-        <v>67.7</v>
+        <v>67.2</v>
       </c>
       <c r="F40" t="n">
-        <v>202425.5614651471</v>
+        <v>217.4605</v>
       </c>
       <c r="G40" t="n">
-        <v>255842.1373651471</v>
+        <v>48166.8793</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -2066,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="K40" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2086,22 +2134,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67.90000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C41" t="n">
-        <v>68.2</v>
+        <v>67.3</v>
       </c>
       <c r="D41" t="n">
-        <v>68.2</v>
+        <v>67.3</v>
       </c>
       <c r="E41" t="n">
-        <v>67.90000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="F41" t="n">
-        <v>11460</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>267302.1373651471</v>
+        <v>48176.8793</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2111,7 +2159,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2128,22 +2176,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>68.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>68.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>68.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>84217.3352</v>
+        <v>205.974</v>
       </c>
       <c r="G42" t="n">
-        <v>351519.4725651471</v>
+        <v>48382.8533</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2153,7 +2201,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2170,22 +2218,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68.2</v>
+        <v>67.2</v>
       </c>
       <c r="C43" t="n">
-        <v>68.2</v>
+        <v>67.2</v>
       </c>
       <c r="D43" t="n">
-        <v>68.2</v>
+        <v>67.2</v>
       </c>
       <c r="E43" t="n">
-        <v>68.2</v>
+        <v>67.2</v>
       </c>
       <c r="F43" t="n">
-        <v>2471.0574</v>
+        <v>569.9</v>
       </c>
       <c r="G43" t="n">
-        <v>349048.4151651471</v>
+        <v>47812.9533</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2195,7 +2243,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2212,22 +2260,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>68.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>68.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>68.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>68.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>7498.0352</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>356546.4503651471</v>
+        <v>47822.9533</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2237,7 +2285,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2254,22 +2302,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>68.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>68.5</v>
+        <v>67.3</v>
       </c>
       <c r="D45" t="n">
-        <v>68.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>68.5</v>
+        <v>67.3</v>
       </c>
       <c r="F45" t="n">
-        <v>14.5985</v>
+        <v>8202.3431</v>
       </c>
       <c r="G45" t="n">
-        <v>356561.0488651471</v>
+        <v>39620.6102</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2279,7 +2327,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2296,22 +2344,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>68.3</v>
+        <v>67.3</v>
       </c>
       <c r="C46" t="n">
-        <v>68.2</v>
+        <v>67.7</v>
       </c>
       <c r="D46" t="n">
-        <v>68.3</v>
+        <v>67.7</v>
       </c>
       <c r="E46" t="n">
-        <v>68.2</v>
+        <v>67.3</v>
       </c>
       <c r="F46" t="n">
-        <v>3130</v>
+        <v>9962.054700000001</v>
       </c>
       <c r="G46" t="n">
-        <v>353431.0488651471</v>
+        <v>49582.6649</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2321,7 +2369,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2338,22 +2386,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>68.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="C47" t="n">
-        <v>68.5</v>
+        <v>67.8</v>
       </c>
       <c r="D47" t="n">
-        <v>68.5</v>
+        <v>67.8</v>
       </c>
       <c r="E47" t="n">
-        <v>68.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="F47" t="n">
-        <v>270</v>
+        <v>10000</v>
       </c>
       <c r="G47" t="n">
-        <v>353701.0488651471</v>
+        <v>59582.6649</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2363,7 +2411,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2380,22 +2428,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="F48" t="n">
-        <v>28748.2481</v>
+        <v>7920</v>
       </c>
       <c r="G48" t="n">
-        <v>353701.0488651471</v>
+        <v>51662.6649</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2405,7 +2453,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2422,22 +2470,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="C49" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="D49" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="E49" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="F49" t="n">
-        <v>6830.1035</v>
+        <v>57599.2592</v>
       </c>
       <c r="G49" t="n">
-        <v>353701.0488651471</v>
+        <v>-5936.594299999997</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2447,7 +2495,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2464,22 +2512,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>68.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>68.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>68.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>68.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>56368.6897</v>
+        <v>3629.0559</v>
       </c>
       <c r="G50" t="n">
-        <v>410069.7385651471</v>
+        <v>-9565.650199999996</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2489,7 +2537,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2506,76 +2554,80 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>68.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="D51" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="E51" t="n">
-        <v>68.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>3130</v>
+        <v>12076.6666</v>
       </c>
       <c r="G51" t="n">
-        <v>406939.7385651471</v>
+        <v>2511.016400000004</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1.018916292974589</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>1151.9999</v>
+        <v>4999.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>406939.7385651471</v>
+        <v>7511.016300000004</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>67</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2586,32 +2638,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>68.7</v>
+        <v>67.7</v>
       </c>
       <c r="D53" t="n">
-        <v>68.7</v>
+        <v>67.7</v>
       </c>
       <c r="E53" t="n">
-        <v>68.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>56374.0917</v>
+        <v>780</v>
       </c>
       <c r="G53" t="n">
-        <v>463313.8302651471</v>
+        <v>8291.016300000003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>67</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2622,32 +2680,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="C54" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="D54" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="E54" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="F54" t="n">
-        <v>671.6427</v>
+        <v>485.9271</v>
       </c>
       <c r="G54" t="n">
-        <v>462642.1875651471</v>
+        <v>8291.016300000003</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>67</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2658,32 +2722,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="C55" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="D55" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="E55" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="F55" t="n">
-        <v>15</v>
+        <v>717</v>
       </c>
       <c r="G55" t="n">
-        <v>462642.1875651471</v>
+        <v>8291.016300000003</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>67</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2694,32 +2764,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>14000</v>
+        <v>790</v>
       </c>
       <c r="G56" t="n">
-        <v>448642.1875651471</v>
+        <v>7501.016300000003</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>67</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2730,22 +2806,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>272.8886</v>
+        <v>5981.9751</v>
       </c>
       <c r="G57" t="n">
-        <v>448369.2989651471</v>
+        <v>1519.041200000003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2754,8 +2830,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>67</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2769,19 +2851,19 @@
         <v>67.59999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="D58" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="F58" t="n">
-        <v>20682.8241</v>
+        <v>270.2416</v>
       </c>
       <c r="G58" t="n">
-        <v>448369.2989651471</v>
+        <v>1248.799600000003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2790,8 +2872,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>67</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2802,22 +2890,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="C59" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="D59" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="E59" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="F59" t="n">
-        <v>1972.9142</v>
+        <v>9628.642</v>
       </c>
       <c r="G59" t="n">
-        <v>450342.2131651471</v>
+        <v>1248.799600000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2826,8 +2914,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>67</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2838,22 +2932,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="C60" t="n">
-        <v>67.90000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="D60" t="n">
-        <v>68.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E60" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="F60" t="n">
-        <v>16141.254</v>
+        <v>4000</v>
       </c>
       <c r="G60" t="n">
-        <v>466483.4671651471</v>
+        <v>1248.799600000003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2862,8 +2956,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>67</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2874,32 +2974,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>67.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>67.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>32940</v>
       </c>
       <c r="G61" t="n">
-        <v>465483.4671651471</v>
+        <v>34188.79960000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>67</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2910,32 +3016,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="D62" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="E62" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>870.9999</v>
+        <v>10010</v>
       </c>
       <c r="G62" t="n">
-        <v>464612.4672651471</v>
+        <v>44198.79960000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>67</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2946,32 +3058,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="C63" t="n">
-        <v>67.5</v>
+        <v>67.8</v>
       </c>
       <c r="D63" t="n">
-        <v>67.5</v>
+        <v>67.8</v>
       </c>
       <c r="E63" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="F63" t="n">
-        <v>4322.6889</v>
+        <v>12000</v>
       </c>
       <c r="G63" t="n">
-        <v>464612.4672651471</v>
+        <v>56198.79960000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>67</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2982,22 +3100,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="C64" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="D64" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="E64" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="F64" t="n">
-        <v>1500</v>
+        <v>17400</v>
       </c>
       <c r="G64" t="n">
-        <v>466112.4672651471</v>
+        <v>56198.79960000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3006,8 +3124,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>67</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3018,22 +3142,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>68.2</v>
+        <v>67.8</v>
       </c>
       <c r="C65" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="D65" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="E65" t="n">
-        <v>68.2</v>
+        <v>67.8</v>
       </c>
       <c r="F65" t="n">
-        <v>8061.9311</v>
+        <v>6383.1716</v>
       </c>
       <c r="G65" t="n">
-        <v>474174.3983651471</v>
+        <v>56198.79960000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3042,8 +3166,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>67</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3054,32 +3184,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>68.3</v>
+        <v>67.7</v>
       </c>
       <c r="C66" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D66" t="n">
-        <v>68.3</v>
+        <v>67.7</v>
       </c>
       <c r="E66" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="F66" t="n">
-        <v>98171.67419999999</v>
+        <v>1000</v>
       </c>
       <c r="G66" t="n">
-        <v>376002.7241651471</v>
+        <v>55198.79960000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>67</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3090,32 +3226,38 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68.2</v>
+        <v>67.3</v>
       </c>
       <c r="C67" t="n">
-        <v>68.2</v>
+        <v>67.3</v>
       </c>
       <c r="D67" t="n">
-        <v>68.2</v>
+        <v>67.3</v>
       </c>
       <c r="E67" t="n">
-        <v>68.2</v>
+        <v>67.3</v>
       </c>
       <c r="F67" t="n">
-        <v>695</v>
+        <v>3353.7505</v>
       </c>
       <c r="G67" t="n">
-        <v>376697.7241651471</v>
+        <v>51845.0491</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>67</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3126,32 +3268,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>68.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D68" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="E68" t="n">
-        <v>68.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>3400</v>
+        <v>1571.5268</v>
       </c>
       <c r="G68" t="n">
-        <v>373297.7241651471</v>
+        <v>53416.5759</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>67</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3162,32 +3310,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="C69" t="n">
-        <v>68.3</v>
+        <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>68.3</v>
+        <v>68</v>
       </c>
       <c r="E69" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="F69" t="n">
-        <v>500</v>
+        <v>202425.5614651471</v>
       </c>
       <c r="G69" t="n">
-        <v>373797.7241651471</v>
+        <v>255842.1373651471</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>67</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3198,32 +3352,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="D70" t="n">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="E70" t="n">
         <v>67.90000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>5010</v>
+        <v>11460</v>
       </c>
       <c r="G70" t="n">
-        <v>373797.7241651471</v>
+        <v>267302.1373651471</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>67</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3234,32 +3394,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>67.8</v>
+        <v>68.2</v>
       </c>
       <c r="C71" t="n">
-        <v>67.7</v>
+        <v>68.3</v>
       </c>
       <c r="D71" t="n">
-        <v>67.8</v>
+        <v>68.3</v>
       </c>
       <c r="E71" t="n">
-        <v>67.7</v>
+        <v>68.2</v>
       </c>
       <c r="F71" t="n">
-        <v>11885.544</v>
+        <v>84217.3352</v>
       </c>
       <c r="G71" t="n">
-        <v>361912.1801651471</v>
+        <v>351519.4725651471</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>67</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3270,22 +3436,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="C72" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="D72" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="E72" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="F72" t="n">
-        <v>128.9421</v>
+        <v>2471.0574</v>
       </c>
       <c r="G72" t="n">
-        <v>362041.122265147</v>
+        <v>349048.4151651471</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3294,8 +3460,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>67</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3306,32 +3478,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>68.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="C73" t="n">
-        <v>68.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="D73" t="n">
-        <v>68.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="E73" t="n">
-        <v>68.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>7498.0352</v>
       </c>
       <c r="G73" t="n">
-        <v>362051.122265147</v>
+        <v>356546.4503651471</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>67</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3342,32 +3520,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>67.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="C74" t="n">
-        <v>67.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D74" t="n">
-        <v>67.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E74" t="n">
-        <v>67.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F74" t="n">
-        <v>459.2897</v>
+        <v>14.5985</v>
       </c>
       <c r="G74" t="n">
-        <v>361591.832565147</v>
+        <v>356561.0488651471</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>67</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3378,32 +3562,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="C75" t="n">
-        <v>67.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="D75" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="E75" t="n">
-        <v>67.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="F75" t="n">
-        <v>568.4752</v>
+        <v>3130</v>
       </c>
       <c r="G75" t="n">
-        <v>361591.832565147</v>
+        <v>353431.0488651471</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>67</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3414,22 +3604,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>68</v>
+        <v>68.5</v>
       </c>
       <c r="D76" t="n">
-        <v>68</v>
+        <v>68.5</v>
       </c>
       <c r="E76" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>1349</v>
+        <v>270</v>
       </c>
       <c r="G76" t="n">
-        <v>362940.832565147</v>
+        <v>353701.0488651471</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3438,8 +3628,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>67</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3450,22 +3646,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>67.8</v>
+        <v>68.5</v>
       </c>
       <c r="C77" t="n">
-        <v>67.8</v>
+        <v>68.5</v>
       </c>
       <c r="D77" t="n">
-        <v>67.8</v>
+        <v>68.5</v>
       </c>
       <c r="E77" t="n">
-        <v>67.8</v>
+        <v>68.5</v>
       </c>
       <c r="F77" t="n">
-        <v>1448.1504</v>
+        <v>28748.2481</v>
       </c>
       <c r="G77" t="n">
-        <v>361492.682165147</v>
+        <v>353701.0488651471</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3474,8 +3670,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>67</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3486,22 +3688,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>68.2</v>
+        <v>68.5</v>
       </c>
       <c r="C78" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D78" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E78" t="n">
-        <v>68.2</v>
+        <v>68.5</v>
       </c>
       <c r="F78" t="n">
-        <v>23156.2483</v>
+        <v>6830.1035</v>
       </c>
       <c r="G78" t="n">
-        <v>384648.930465147</v>
+        <v>353701.0488651471</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3510,8 +3712,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>67</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3522,32 +3730,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>68.2</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>68.2</v>
+        <v>68.7</v>
       </c>
       <c r="D79" t="n">
-        <v>68.2</v>
+        <v>68.7</v>
       </c>
       <c r="E79" t="n">
-        <v>68.2</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>2596.0447</v>
+        <v>56368.6897</v>
       </c>
       <c r="G79" t="n">
-        <v>382052.885765147</v>
+        <v>410069.7385651471</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>67</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3558,32 +3772,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="C80" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D80" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E80" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F80" t="n">
-        <v>1597.0302</v>
+        <v>3130</v>
       </c>
       <c r="G80" t="n">
-        <v>383649.915965147</v>
+        <v>406939.7385651471</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>67</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3594,32 +3814,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="C81" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D81" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E81" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F81" t="n">
-        <v>908.9597</v>
+        <v>1151.9999</v>
       </c>
       <c r="G81" t="n">
-        <v>383649.915965147</v>
+        <v>406939.7385651471</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>67</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3630,32 +3856,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="C82" t="n">
-        <v>68.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="D82" t="n">
-        <v>68.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="E82" t="n">
-        <v>68.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>7330.5907</v>
+        <v>56374.0917</v>
       </c>
       <c r="G82" t="n">
-        <v>383649.915965147</v>
+        <v>463313.8302651471</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>67</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3666,32 +3898,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>68.3</v>
+        <v>68</v>
       </c>
       <c r="C83" t="n">
-        <v>68.3</v>
+        <v>68</v>
       </c>
       <c r="D83" t="n">
-        <v>68.3</v>
+        <v>68</v>
       </c>
       <c r="E83" t="n">
-        <v>68.3</v>
+        <v>68</v>
       </c>
       <c r="F83" t="n">
-        <v>790</v>
+        <v>671.6427</v>
       </c>
       <c r="G83" t="n">
-        <v>382859.915965147</v>
+        <v>462642.1875651471</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>67</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3702,32 +3940,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>68.2</v>
+        <v>68</v>
       </c>
       <c r="C84" t="n">
-        <v>68.2</v>
+        <v>68</v>
       </c>
       <c r="D84" t="n">
-        <v>68.2</v>
+        <v>68</v>
       </c>
       <c r="E84" t="n">
-        <v>68.2</v>
+        <v>68</v>
       </c>
       <c r="F84" t="n">
-        <v>10903.6269</v>
+        <v>15</v>
       </c>
       <c r="G84" t="n">
-        <v>371956.289065147</v>
+        <v>462642.1875651471</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>67</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3738,32 +3982,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="C85" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="D85" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="E85" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="F85" t="n">
-        <v>3130</v>
+        <v>14000</v>
       </c>
       <c r="G85" t="n">
-        <v>368826.289065147</v>
+        <v>448642.1875651471</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>67</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3774,22 +4024,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>8239.550499999999</v>
+        <v>272.8886</v>
       </c>
       <c r="G86" t="n">
-        <v>368826.289065147</v>
+        <v>448369.2989651471</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3798,8 +4048,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>67</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3810,22 +4066,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>68.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>68.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>3440.7298</v>
+        <v>20682.8241</v>
       </c>
       <c r="G87" t="n">
-        <v>372267.018865147</v>
+        <v>448369.2989651471</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3834,8 +4090,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>67</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3846,32 +4108,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>68.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C88" t="n">
-        <v>68.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="D88" t="n">
-        <v>68.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E88" t="n">
-        <v>68.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F88" t="n">
-        <v>710</v>
+        <v>1972.9142</v>
       </c>
       <c r="G88" t="n">
-        <v>371557.018865147</v>
+        <v>450342.2131651471</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>67</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3882,32 +4150,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="C89" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D89" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="C89" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="D89" t="n">
-        <v>68.7</v>
-      </c>
       <c r="E89" t="n">
-        <v>68.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F89" t="n">
-        <v>438</v>
+        <v>16141.254</v>
       </c>
       <c r="G89" t="n">
-        <v>371995.018865147</v>
+        <v>466483.4671651471</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>67</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3918,32 +4192,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="C90" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="D90" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="E90" t="n">
-        <v>68.7</v>
+        <v>67.8</v>
       </c>
       <c r="F90" t="n">
-        <v>620</v>
+        <v>1000</v>
       </c>
       <c r="G90" t="n">
-        <v>371995.018865147</v>
+        <v>465483.4671651471</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>67</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3954,32 +4234,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>68.7</v>
+        <v>67.5</v>
       </c>
       <c r="C91" t="n">
-        <v>68.7</v>
+        <v>67.5</v>
       </c>
       <c r="D91" t="n">
-        <v>68.7</v>
+        <v>67.5</v>
       </c>
       <c r="E91" t="n">
-        <v>68.7</v>
+        <v>67.5</v>
       </c>
       <c r="F91" t="n">
-        <v>7897.2983</v>
+        <v>870.9999</v>
       </c>
       <c r="G91" t="n">
-        <v>371995.018865147</v>
+        <v>464612.4672651471</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>67</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3990,32 +4276,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>68.2</v>
+        <v>67.5</v>
       </c>
       <c r="C92" t="n">
-        <v>68.2</v>
+        <v>67.5</v>
       </c>
       <c r="D92" t="n">
-        <v>68.2</v>
+        <v>67.5</v>
       </c>
       <c r="E92" t="n">
-        <v>68.2</v>
+        <v>67.5</v>
       </c>
       <c r="F92" t="n">
-        <v>9273.248799999999</v>
+        <v>4322.6889</v>
       </c>
       <c r="G92" t="n">
-        <v>362721.770065147</v>
+        <v>464612.4672651471</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>67</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4026,32 +4318,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>68.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="D93" t="n">
-        <v>68.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="E93" t="n">
-        <v>68.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>11555.5628</v>
+        <v>1500</v>
       </c>
       <c r="G93" t="n">
-        <v>374277.332865147</v>
+        <v>466112.4672651471</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>67</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4062,32 +4360,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>68.59999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="C94" t="n">
-        <v>68.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D94" t="n">
-        <v>68.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="E94" t="n">
-        <v>68.59999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="F94" t="n">
-        <v>2915.451895043732</v>
+        <v>8061.9311</v>
       </c>
       <c r="G94" t="n">
-        <v>374277.332865147</v>
+        <v>474174.3983651471</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>67</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4101,29 +4405,35 @@
         <v>68.3</v>
       </c>
       <c r="C95" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D95" t="n">
         <v>68.3</v>
       </c>
       <c r="E95" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>285.5576</v>
+        <v>98171.67419999999</v>
       </c>
       <c r="G95" t="n">
-        <v>373991.775265147</v>
+        <v>376002.7241651471</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>67</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4134,32 +4444,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="C96" t="n">
         <v>68.2</v>
       </c>
       <c r="D96" t="n">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="E96" t="n">
         <v>68.2</v>
       </c>
       <c r="F96" t="n">
-        <v>5005.1177</v>
+        <v>695</v>
       </c>
       <c r="G96" t="n">
-        <v>368986.657565147</v>
+        <v>376697.7241651471</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>67</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4170,32 +4486,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>68.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>68.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>68.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>68.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>3400</v>
       </c>
       <c r="G97" t="n">
-        <v>368996.657565147</v>
+        <v>373297.7241651471</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>67</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4206,7 +4528,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C98" t="n">
         <v>68.3</v>
@@ -4215,23 +4537,29 @@
         <v>68.3</v>
       </c>
       <c r="E98" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>15114.2659</v>
+        <v>500</v>
       </c>
       <c r="G98" t="n">
-        <v>353882.391665147</v>
+        <v>373797.7241651471</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>67</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4242,7 +4570,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>68.2</v>
+        <v>68</v>
       </c>
       <c r="C99" t="n">
         <v>68.3</v>
@@ -4251,23 +4579,29 @@
         <v>68.3</v>
       </c>
       <c r="E99" t="n">
-        <v>68.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>451</v>
+        <v>5010</v>
       </c>
       <c r="G99" t="n">
-        <v>353882.391665147</v>
+        <v>373797.7241651471</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>67</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4278,32 +4612,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>68.2</v>
+        <v>67.8</v>
       </c>
       <c r="C100" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="D100" t="n">
-        <v>68.2</v>
+        <v>67.8</v>
       </c>
       <c r="E100" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="F100" t="n">
-        <v>62676.929</v>
+        <v>11885.544</v>
       </c>
       <c r="G100" t="n">
-        <v>291205.462665147</v>
+        <v>361912.1801651471</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>67</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4326,20 +4666,26 @@
         <v>68</v>
       </c>
       <c r="F101" t="n">
-        <v>8602.5414</v>
+        <v>128.9421</v>
       </c>
       <c r="G101" t="n">
-        <v>291205.462665147</v>
+        <v>362041.122265147</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>67</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4350,32 +4696,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>11199.2</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>291205.462665147</v>
+        <v>362051.122265147</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>67</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4386,34 +4738,40 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>1205.7299</v>
+        <v>459.2897</v>
       </c>
       <c r="G103" t="n">
-        <v>291205.462665147</v>
+        <v>361591.832565147</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>67</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>1.008432835820896</v>
       </c>
       <c r="N103" t="inlineStr"/>
     </row>
@@ -4422,28 +4780,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>988.7418</v>
+        <v>568.4752</v>
       </c>
       <c r="G104" t="n">
-        <v>291205.462665147</v>
+        <v>361591.832565147</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4470,16 +4828,16 @@
         <v>68</v>
       </c>
       <c r="F105" t="n">
-        <v>2778</v>
+        <v>1349</v>
       </c>
       <c r="G105" t="n">
-        <v>291205.462665147</v>
+        <v>362940.832565147</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4494,22 +4852,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="C106" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="D106" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="E106" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="F106" t="n">
-        <v>3000</v>
+        <v>1448.1504</v>
       </c>
       <c r="G106" t="n">
-        <v>291205.462665147</v>
+        <v>361492.682165147</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4530,22 +4888,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="C107" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="F107" t="n">
-        <v>1318.7432</v>
+        <v>23156.2483</v>
       </c>
       <c r="G107" t="n">
-        <v>291205.462665147</v>
+        <v>384648.930465147</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4566,22 +4924,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="C108" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="D108" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="E108" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="F108" t="n">
-        <v>760.7195</v>
+        <v>2596.0447</v>
       </c>
       <c r="G108" t="n">
-        <v>291205.462665147</v>
+        <v>382052.885765147</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4602,22 +4960,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>10431.9872</v>
+        <v>1597.0302</v>
       </c>
       <c r="G109" t="n">
-        <v>291205.462665147</v>
+        <v>383649.915965147</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4638,22 +4996,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>57762.7069</v>
+        <v>908.9597</v>
       </c>
       <c r="G110" t="n">
-        <v>233442.755765147</v>
+        <v>383649.915965147</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4674,28 +5032,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>36589.4467</v>
+        <v>7330.5907</v>
       </c>
       <c r="G111" t="n">
-        <v>270032.202465147</v>
+        <v>383649.915965147</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4710,28 +5068,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="C112" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D112" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="E112" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="F112" t="n">
-        <v>38366.3688</v>
+        <v>790</v>
       </c>
       <c r="G112" t="n">
-        <v>270032.202465147</v>
+        <v>382859.915965147</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4746,28 +5104,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="C113" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="D113" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="E113" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="F113" t="n">
-        <v>4152.4</v>
+        <v>10903.6269</v>
       </c>
       <c r="G113" t="n">
-        <v>274184.602465147</v>
+        <v>371956.289065147</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4782,28 +5140,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C114" t="n">
         <v>68</v>
       </c>
       <c r="D114" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E114" t="n">
         <v>68</v>
       </c>
       <c r="F114" t="n">
-        <v>1646.1399</v>
+        <v>3130</v>
       </c>
       <c r="G114" t="n">
-        <v>274184.602465147</v>
+        <v>368826.289065147</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4818,28 +5176,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="C115" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="D115" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="E115" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="F115" t="n">
-        <v>4973.3905</v>
+        <v>8239.550499999999</v>
       </c>
       <c r="G115" t="n">
-        <v>269211.2119651471</v>
+        <v>368826.289065147</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4854,22 +5212,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>67.3</v>
+        <v>68.5</v>
       </c>
       <c r="D116" t="n">
-        <v>67.3</v>
+        <v>68.5</v>
       </c>
       <c r="E116" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>35433.7414</v>
+        <v>3440.7298</v>
       </c>
       <c r="G116" t="n">
-        <v>269211.2119651471</v>
+        <v>372267.018865147</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4890,28 +5248,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>1225.9999</v>
+        <v>710</v>
       </c>
       <c r="G117" t="n">
-        <v>269211.2119651471</v>
+        <v>371557.018865147</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4926,28 +5284,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="D118" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="E118" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>593.8596</v>
+        <v>438</v>
       </c>
       <c r="G118" t="n">
-        <v>269211.2119651471</v>
+        <v>371995.018865147</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4962,28 +5320,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="C119" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="D119" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="E119" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="F119" t="n">
-        <v>6973.1567</v>
+        <v>620</v>
       </c>
       <c r="G119" t="n">
-        <v>269211.2119651471</v>
+        <v>371995.018865147</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4998,28 +5356,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="C120" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="D120" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="E120" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
       <c r="F120" t="n">
-        <v>2142</v>
+        <v>7897.2983</v>
       </c>
       <c r="G120" t="n">
-        <v>269211.2119651471</v>
+        <v>371995.018865147</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5034,28 +5392,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>67.2</v>
+        <v>68.2</v>
       </c>
       <c r="C121" t="n">
-        <v>67.2</v>
+        <v>68.2</v>
       </c>
       <c r="D121" t="n">
-        <v>67.2</v>
+        <v>68.2</v>
       </c>
       <c r="E121" t="n">
-        <v>67.2</v>
+        <v>68.2</v>
       </c>
       <c r="F121" t="n">
-        <v>3363.269</v>
+        <v>9273.248799999999</v>
       </c>
       <c r="G121" t="n">
-        <v>265847.9429651471</v>
+        <v>362721.770065147</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5070,28 +5428,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>67.3</v>
+        <v>68.5</v>
       </c>
       <c r="C122" t="n">
-        <v>67.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>67.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>67.3</v>
+        <v>68.5</v>
       </c>
       <c r="F122" t="n">
-        <v>7643.4992</v>
+        <v>11555.5628</v>
       </c>
       <c r="G122" t="n">
-        <v>273491.4421651471</v>
+        <v>374277.332865147</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5106,28 +5464,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>67.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>67.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>67.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>67.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>623.4164</v>
+        <v>2915.451895043732</v>
       </c>
       <c r="G123" t="n">
-        <v>273491.4421651471</v>
+        <v>374277.332865147</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5142,28 +5500,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="C124" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="D124" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="E124" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="F124" t="n">
-        <v>1156.8314</v>
+        <v>285.5576</v>
       </c>
       <c r="G124" t="n">
-        <v>272334.6107651471</v>
+        <v>373991.775265147</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5178,28 +5536,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="C125" t="n">
-        <v>67.2</v>
+        <v>68.2</v>
       </c>
       <c r="D125" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="E125" t="n">
-        <v>67.2</v>
+        <v>68.2</v>
       </c>
       <c r="F125" t="n">
-        <v>16.0714</v>
+        <v>5005.1177</v>
       </c>
       <c r="G125" t="n">
-        <v>272334.6107651471</v>
+        <v>368986.657565147</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5214,28 +5572,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="C126" t="n">
-        <v>67.2</v>
+        <v>68.5</v>
       </c>
       <c r="D126" t="n">
-        <v>67.2</v>
+        <v>68.5</v>
       </c>
       <c r="E126" t="n">
-        <v>67.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="F126" t="n">
-        <v>2673.6356</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>272334.6107651471</v>
+        <v>368996.657565147</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5250,28 +5608,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="C127" t="n">
-        <v>67.3</v>
+        <v>68.3</v>
       </c>
       <c r="D127" t="n">
-        <v>67.3</v>
+        <v>68.3</v>
       </c>
       <c r="E127" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="F127" t="n">
-        <v>3400</v>
+        <v>15114.2659</v>
       </c>
       <c r="G127" t="n">
-        <v>275734.6107651471</v>
+        <v>353882.391665147</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5286,28 +5644,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>67.2</v>
+        <v>68.2</v>
       </c>
       <c r="C128" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="D128" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="E128" t="n">
-        <v>67.2</v>
+        <v>68.2</v>
       </c>
       <c r="F128" t="n">
-        <v>1890</v>
+        <v>451</v>
       </c>
       <c r="G128" t="n">
-        <v>273844.6107651471</v>
+        <v>353882.391665147</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5322,28 +5680,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67.3</v>
+        <v>68.2</v>
       </c>
       <c r="C129" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="D129" t="n">
-        <v>67.3</v>
+        <v>68.2</v>
       </c>
       <c r="E129" t="n">
-        <v>67.3</v>
+        <v>68</v>
       </c>
       <c r="F129" t="n">
-        <v>1080.9999</v>
+        <v>62676.929</v>
       </c>
       <c r="G129" t="n">
-        <v>274925.6106651471</v>
+        <v>291205.462665147</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5353,6 +5711,1050 @@
       </c>
       <c r="N129" t="inlineStr"/>
     </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>68</v>
+      </c>
+      <c r="C130" t="n">
+        <v>68</v>
+      </c>
+      <c r="D130" t="n">
+        <v>68</v>
+      </c>
+      <c r="E130" t="n">
+        <v>68</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8602.5414</v>
+      </c>
+      <c r="G130" t="n">
+        <v>291205.462665147</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>68</v>
+      </c>
+      <c r="C131" t="n">
+        <v>68</v>
+      </c>
+      <c r="D131" t="n">
+        <v>68</v>
+      </c>
+      <c r="E131" t="n">
+        <v>68</v>
+      </c>
+      <c r="F131" t="n">
+        <v>11199.2</v>
+      </c>
+      <c r="G131" t="n">
+        <v>291205.462665147</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>68</v>
+      </c>
+      <c r="C132" t="n">
+        <v>68</v>
+      </c>
+      <c r="D132" t="n">
+        <v>68</v>
+      </c>
+      <c r="E132" t="n">
+        <v>68</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1205.7299</v>
+      </c>
+      <c r="G132" t="n">
+        <v>291205.462665147</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>68</v>
+      </c>
+      <c r="C133" t="n">
+        <v>68</v>
+      </c>
+      <c r="D133" t="n">
+        <v>68</v>
+      </c>
+      <c r="E133" t="n">
+        <v>68</v>
+      </c>
+      <c r="F133" t="n">
+        <v>988.7418</v>
+      </c>
+      <c r="G133" t="n">
+        <v>291205.462665147</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>68</v>
+      </c>
+      <c r="C134" t="n">
+        <v>68</v>
+      </c>
+      <c r="D134" t="n">
+        <v>68</v>
+      </c>
+      <c r="E134" t="n">
+        <v>68</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2778</v>
+      </c>
+      <c r="G134" t="n">
+        <v>291205.462665147</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>68</v>
+      </c>
+      <c r="C135" t="n">
+        <v>68</v>
+      </c>
+      <c r="D135" t="n">
+        <v>68</v>
+      </c>
+      <c r="E135" t="n">
+        <v>68</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>291205.462665147</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>68</v>
+      </c>
+      <c r="C136" t="n">
+        <v>68</v>
+      </c>
+      <c r="D136" t="n">
+        <v>68</v>
+      </c>
+      <c r="E136" t="n">
+        <v>68</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1318.7432</v>
+      </c>
+      <c r="G136" t="n">
+        <v>291205.462665147</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>68</v>
+      </c>
+      <c r="C137" t="n">
+        <v>68</v>
+      </c>
+      <c r="D137" t="n">
+        <v>68</v>
+      </c>
+      <c r="E137" t="n">
+        <v>68</v>
+      </c>
+      <c r="F137" t="n">
+        <v>760.7195</v>
+      </c>
+      <c r="G137" t="n">
+        <v>291205.462665147</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>68</v>
+      </c>
+      <c r="C138" t="n">
+        <v>68</v>
+      </c>
+      <c r="D138" t="n">
+        <v>68</v>
+      </c>
+      <c r="E138" t="n">
+        <v>68</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10431.9872</v>
+      </c>
+      <c r="G138" t="n">
+        <v>291205.462665147</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>68</v>
+      </c>
+      <c r="C139" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>68</v>
+      </c>
+      <c r="E139" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>57762.7069</v>
+      </c>
+      <c r="G139" t="n">
+        <v>233442.755765147</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C140" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D140" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F140" t="n">
+        <v>36589.4467</v>
+      </c>
+      <c r="G140" t="n">
+        <v>270032.202465147</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C141" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D141" t="n">
+        <v>68</v>
+      </c>
+      <c r="E141" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>38366.3688</v>
+      </c>
+      <c r="G141" t="n">
+        <v>270032.202465147</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>68</v>
+      </c>
+      <c r="C142" t="n">
+        <v>68</v>
+      </c>
+      <c r="D142" t="n">
+        <v>68</v>
+      </c>
+      <c r="E142" t="n">
+        <v>68</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4152.4</v>
+      </c>
+      <c r="G142" t="n">
+        <v>274184.602465147</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>68</v>
+      </c>
+      <c r="C143" t="n">
+        <v>68</v>
+      </c>
+      <c r="D143" t="n">
+        <v>68</v>
+      </c>
+      <c r="E143" t="n">
+        <v>68</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1646.1399</v>
+      </c>
+      <c r="G143" t="n">
+        <v>274184.602465147</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4973.3905</v>
+      </c>
+      <c r="G144" t="n">
+        <v>269211.2119651471</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>35433.7414</v>
+      </c>
+      <c r="G145" t="n">
+        <v>269211.2119651471</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1225.9999</v>
+      </c>
+      <c r="G146" t="n">
+        <v>269211.2119651471</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D147" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E147" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>593.8596</v>
+      </c>
+      <c r="G147" t="n">
+        <v>269211.2119651471</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C148" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D148" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6973.1567</v>
+      </c>
+      <c r="G148" t="n">
+        <v>269211.2119651471</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2142</v>
+      </c>
+      <c r="G149" t="n">
+        <v>269211.2119651471</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3363.269</v>
+      </c>
+      <c r="G150" t="n">
+        <v>265847.9429651471</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E151" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7643.4992</v>
+      </c>
+      <c r="G151" t="n">
+        <v>273491.4421651471</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>623.4164</v>
+      </c>
+      <c r="G152" t="n">
+        <v>273491.4421651471</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1156.8314</v>
+      </c>
+      <c r="G153" t="n">
+        <v>272334.6107651471</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16.0714</v>
+      </c>
+      <c r="G154" t="n">
+        <v>272334.6107651471</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2673.6356</v>
+      </c>
+      <c r="G155" t="n">
+        <v>272334.6107651471</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G156" t="n">
+        <v>275734.6107651471</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1890</v>
+      </c>
+      <c r="G157" t="n">
+        <v>273844.6107651471</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1080.9999</v>
+      </c>
+      <c r="G158" t="n">
+        <v>274925.6106651471</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-22 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-22 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>30380.37110000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J3" t="n">
         <v>67</v>
       </c>
-      <c r="K3" t="n">
-        <v>67</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>67</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>67</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>67</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>30683.56510000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>67</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,24 +685,23 @@
         <v>27903.56510000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>67</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>67</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,24 +726,23 @@
         <v>18871.56510000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>67</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>66.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>67</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,26 +767,21 @@
         <v>30161.68230000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>67</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,26 +806,23 @@
         <v>28092.70540000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K11" t="n">
-        <v>67</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,26 +847,23 @@
         <v>30102.70540000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="J12" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>67</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -924,26 +888,21 @@
         <v>28442.70540000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>67</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -968,26 +927,21 @@
         <v>28442.70540000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K14" t="n">
-        <v>67</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1012,26 +966,21 @@
         <v>61340.38830000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>67</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1056,26 +1005,21 @@
         <v>65842.4167</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>67</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1100,26 +1044,21 @@
         <v>65842.4167</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>67</v>
       </c>
-      <c r="K17" t="n">
-        <v>67</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1144,26 +1083,21 @@
         <v>65842.4167</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>67</v>
       </c>
-      <c r="K18" t="n">
-        <v>67</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1190,22 +1124,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>67</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>67</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1230,26 +1161,21 @@
         <v>62929.4188</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K20" t="n">
-        <v>67</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1274,26 +1200,21 @@
         <v>52929.4188</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>67</v>
       </c>
-      <c r="K21" t="n">
-        <v>67</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1318,26 +1239,21 @@
         <v>52929.4188</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K22" t="n">
-        <v>67</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1362,26 +1278,23 @@
         <v>52929.4188</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K23" t="n">
-        <v>67</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1406,26 +1319,21 @@
         <v>52929.4188</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K24" t="n">
-        <v>67</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1450,26 +1358,21 @@
         <v>52939.4188</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K25" t="n">
-        <v>67</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1494,26 +1397,21 @@
         <v>52939.4188</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>67</v>
       </c>
-      <c r="K26" t="n">
-        <v>67</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1538,26 +1436,21 @@
         <v>52939.4188</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>67</v>
       </c>
-      <c r="K27" t="n">
-        <v>67</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1584,22 +1477,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>67</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>67</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1624,26 +1514,21 @@
         <v>52939.4188</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>67</v>
       </c>
-      <c r="K29" t="n">
-        <v>67</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1668,26 +1553,21 @@
         <v>47939.4188</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>67</v>
       </c>
-      <c r="K30" t="n">
-        <v>67</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1712,26 +1592,21 @@
         <v>47939.4188</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K31" t="n">
-        <v>67</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1756,26 +1631,23 @@
         <v>47939.4188</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K32" t="n">
-        <v>67</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1800,26 +1672,23 @@
         <v>47939.4188</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K33" t="n">
-        <v>67</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1844,26 +1713,21 @@
         <v>47939.4188</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K34" t="n">
-        <v>67</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1888,26 +1752,23 @@
         <v>47939.4188</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K35" t="n">
-        <v>67</v>
-      </c>
-      <c r="L35" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1932,26 +1793,21 @@
         <v>47949.4188</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K36" t="n">
-        <v>67</v>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1976,26 +1832,21 @@
         <v>47949.4188</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>67</v>
       </c>
-      <c r="K37" t="n">
-        <v>67</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2020,26 +1871,21 @@
         <v>47949.4188</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>67</v>
       </c>
-      <c r="K38" t="n">
-        <v>67</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2064,26 +1910,23 @@
         <v>47949.4188</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J39" t="n">
         <v>67</v>
       </c>
-      <c r="K39" t="n">
-        <v>67</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2108,26 +1951,21 @@
         <v>48166.8793</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>67</v>
       </c>
-      <c r="K40" t="n">
-        <v>67</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2154,22 +1992,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>67</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>67</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2196,22 +2031,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>67</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>67</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2238,22 +2070,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>67</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>67</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2280,22 +2109,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>67</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>67</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2322,22 +2148,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>67</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>67</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2364,22 +2187,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>67</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>67</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2406,22 +2226,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>67</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>67</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2448,22 +2265,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>67</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>67</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2488,24 +2302,21 @@
         <v>-5936.594299999997</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>67</v>
-      </c>
-      <c r="L49" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>67</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1.002462686567164</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2532,22 +2343,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>67</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2574,22 +2376,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>67</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2616,22 +2409,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>67</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2658,22 +2442,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>67</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2700,22 +2475,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>67</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2742,22 +2508,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>67</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2784,22 +2541,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>67</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2826,22 +2574,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>67</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2868,22 +2607,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>67</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2910,22 +2640,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>67</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2952,22 +2673,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>67</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2994,22 +2706,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>67</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3036,22 +2739,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>67</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3078,22 +2772,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>67</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3118,24 +2803,15 @@
         <v>56198.79960000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>67</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3160,24 +2836,15 @@
         <v>56198.79960000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>67</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3202,24 +2869,15 @@
         <v>55198.79960000001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>67</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3246,22 +2904,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>67</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3288,22 +2937,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>67</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3330,22 +2970,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>67</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3372,22 +3003,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>67</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3414,22 +3036,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>67</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3454,24 +3067,15 @@
         <v>349048.4151651471</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>67</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3496,24 +3100,15 @@
         <v>356546.4503651471</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>67</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3540,22 +3135,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>67</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3582,22 +3168,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>67</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3624,22 +3201,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>67</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3666,22 +3234,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>67</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3708,22 +3267,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>67</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3750,22 +3300,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>67</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3792,22 +3333,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>67</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3834,22 +3366,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>67</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3876,22 +3399,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>67</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3918,22 +3432,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>67</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3960,22 +3465,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>67</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4002,22 +3498,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>67</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4044,22 +3531,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>67</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4086,22 +3564,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>67</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4128,22 +3597,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>67</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4170,22 +3630,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>67</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4212,22 +3663,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>67</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4254,22 +3696,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>67</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4296,22 +3729,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>67</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4338,22 +3762,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>67</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4380,22 +3795,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>67</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4422,22 +3828,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>67</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4464,22 +3861,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>67</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4506,22 +3894,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>67</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4548,22 +3927,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>67</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4590,22 +3960,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>67</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4630,24 +3991,15 @@
         <v>361912.1801651471</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>67</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4674,22 +4026,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>67</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4716,22 +4059,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>67</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4758,22 +4092,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>67</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1.008432835820896</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4800,16 +4125,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4836,16 +4158,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4872,16 +4191,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4908,16 +4224,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4944,16 +4257,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4980,16 +4290,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5016,16 +4323,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5052,16 +4356,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5088,16 +4389,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5124,16 +4422,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5160,16 +4455,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5194,18 +4486,15 @@
         <v>368826.289065147</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5230,18 +4519,15 @@
         <v>372267.018865147</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5268,16 +4554,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5304,16 +4587,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5340,16 +4620,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5374,18 +4651,15 @@
         <v>371995.018865147</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5410,18 +4684,15 @@
         <v>362721.770065147</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5446,18 +4717,15 @@
         <v>374277.332865147</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5482,18 +4750,15 @@
         <v>374277.332865147</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5518,18 +4783,15 @@
         <v>373991.775265147</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5554,18 +4816,15 @@
         <v>368986.657565147</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5592,16 +4851,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5626,18 +4882,15 @@
         <v>353882.391665147</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5662,18 +4915,15 @@
         <v>353882.391665147</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5698,18 +4948,15 @@
         <v>291205.462665147</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5736,16 +4983,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5772,16 +5016,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5808,16 +5049,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5844,16 +5082,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5880,16 +5115,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5916,16 +5148,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5952,16 +5181,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5988,16 +5214,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6024,16 +5247,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6060,16 +5280,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6096,16 +5313,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6132,16 +5346,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6168,16 +5379,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6204,16 +5412,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6240,16 +5445,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6276,16 +5478,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6310,18 +5509,15 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6348,16 +5544,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6384,16 +5577,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6420,16 +5610,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6454,18 +5641,15 @@
         <v>265847.9429651471</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6490,18 +5674,15 @@
         <v>273491.4421651471</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6526,18 +5707,15 @@
         <v>273491.4421651471</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6564,16 +5742,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6600,16 +5775,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6636,16 +5808,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6672,16 +5841,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6708,16 +5874,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6742,20 +5905,17 @@
         <v>274925.6106651471</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-22 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>30380.37110000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>67</v>
@@ -521,7 +521,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>66.59999999999999</v>
@@ -562,7 +562,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>66.90000000000001</v>
@@ -603,7 +603,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>66.90000000000001</v>
@@ -644,7 +644,7 @@
         <v>30683.56510000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>66.90000000000001</v>
@@ -685,7 +685,7 @@
         <v>27903.56510000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>67</v>
@@ -726,7 +726,7 @@
         <v>18871.56510000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>66.8</v>
@@ -767,9 +767,11 @@
         <v>30161.68230000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J10" t="n">
         <v>67</v>
       </c>
@@ -806,7 +808,7 @@
         <v>28092.70540000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>66.90000000000001</v>
@@ -847,7 +849,7 @@
         <v>30102.70540000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>66.5</v>
@@ -888,9 +890,11 @@
         <v>28442.70540000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>66.7</v>
+      </c>
       <c r="J13" t="n">
         <v>67</v>
       </c>
@@ -927,9 +931,11 @@
         <v>28442.70540000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J14" t="n">
         <v>67</v>
       </c>
@@ -966,9 +972,11 @@
         <v>61340.38830000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J15" t="n">
         <v>67</v>
       </c>
@@ -1005,9 +1013,11 @@
         <v>65842.4167</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>66.8</v>
+      </c>
       <c r="J16" t="n">
         <v>67</v>
       </c>
@@ -1044,9 +1054,11 @@
         <v>65842.4167</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>67</v>
+      </c>
       <c r="J17" t="n">
         <v>67</v>
       </c>
@@ -1083,9 +1095,11 @@
         <v>65842.4167</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>67</v>
+      </c>
       <c r="J18" t="n">
         <v>67</v>
       </c>
@@ -1122,9 +1136,11 @@
         <v>60842.4167</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>67</v>
+      </c>
       <c r="J19" t="n">
         <v>67</v>
       </c>
@@ -1161,9 +1177,11 @@
         <v>62929.4188</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="J20" t="n">
         <v>67</v>
       </c>
@@ -1200,9 +1218,11 @@
         <v>52929.4188</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>67</v>
+      </c>
       <c r="J21" t="n">
         <v>67</v>
       </c>
@@ -1239,9 +1259,11 @@
         <v>52929.4188</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="J22" t="n">
         <v>67</v>
       </c>
@@ -1278,7 +1300,7 @@
         <v>52929.4188</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>66.90000000000001</v>
@@ -1319,9 +1341,11 @@
         <v>52929.4188</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="J24" t="n">
         <v>67</v>
       </c>
@@ -1358,9 +1382,11 @@
         <v>52939.4188</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="J25" t="n">
         <v>67</v>
       </c>
@@ -1397,9 +1423,11 @@
         <v>52939.4188</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>67</v>
+      </c>
       <c r="J26" t="n">
         <v>67</v>
       </c>
@@ -1436,9 +1464,11 @@
         <v>52939.4188</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>67</v>
+      </c>
       <c r="J27" t="n">
         <v>67</v>
       </c>
@@ -1475,9 +1505,11 @@
         <v>52939.4188</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>67</v>
+      </c>
       <c r="J28" t="n">
         <v>67</v>
       </c>
@@ -1514,9 +1546,11 @@
         <v>52939.4188</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>67</v>
+      </c>
       <c r="J29" t="n">
         <v>67</v>
       </c>
@@ -1553,9 +1587,11 @@
         <v>47939.4188</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>67</v>
+      </c>
       <c r="J30" t="n">
         <v>67</v>
       </c>
@@ -1592,9 +1628,11 @@
         <v>47939.4188</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="J31" t="n">
         <v>67</v>
       </c>
@@ -1631,7 +1669,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>66.90000000000001</v>
@@ -1672,7 +1710,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>66.90000000000001</v>
@@ -1713,9 +1751,11 @@
         <v>47939.4188</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="J34" t="n">
         <v>67</v>
       </c>
@@ -1752,7 +1792,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>66.90000000000001</v>
@@ -1793,9 +1833,11 @@
         <v>47949.4188</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="J36" t="n">
         <v>67</v>
       </c>
@@ -1832,9 +1874,11 @@
         <v>47949.4188</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>67</v>
+      </c>
       <c r="J37" t="n">
         <v>67</v>
       </c>
@@ -1871,9 +1915,11 @@
         <v>47949.4188</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>67</v>
+      </c>
       <c r="J38" t="n">
         <v>67</v>
       </c>
@@ -1910,7 +1956,7 @@
         <v>47949.4188</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>67</v>
@@ -1951,9 +1997,11 @@
         <v>48166.8793</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>67</v>
+      </c>
       <c r="J40" t="n">
         <v>67</v>
       </c>
@@ -1990,9 +2038,11 @@
         <v>48176.8793</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>67.2</v>
+      </c>
       <c r="J41" t="n">
         <v>67</v>
       </c>
@@ -2029,9 +2079,11 @@
         <v>48382.8533</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>67.3</v>
+      </c>
       <c r="J42" t="n">
         <v>67</v>
       </c>
@@ -2068,9 +2120,11 @@
         <v>47812.9533</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>67.40000000000001</v>
+      </c>
       <c r="J43" t="n">
         <v>67</v>
       </c>
@@ -2107,9 +2161,11 @@
         <v>47822.9533</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>67.2</v>
+      </c>
       <c r="J44" t="n">
         <v>67</v>
       </c>
@@ -2302,7 +2358,7 @@
         <v>-5936.594299999997</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
@@ -2310,11 +2366,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.002462686567164</v>
+        <v>1</v>
       </c>
       <c r="M49" t="inlineStr"/>
     </row>
@@ -2341,11 +2397,19 @@
         <v>-9565.650199999996</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>67</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2374,11 +2438,19 @@
         <v>2511.016400000004</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="J51" t="n">
+        <v>67</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2407,11 +2479,19 @@
         <v>7511.016300000004</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>67</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2443,8 +2523,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>67</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2476,8 +2562,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>67</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2509,8 +2601,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>67</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2542,8 +2640,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>67</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2572,11 +2676,19 @@
         <v>1519.041200000003</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="J57" t="n">
+        <v>67</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2605,11 +2717,19 @@
         <v>1248.799600000003</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J58" t="n">
+        <v>67</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2638,11 +2758,19 @@
         <v>1248.799600000003</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>67</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2671,11 +2799,19 @@
         <v>1248.799600000003</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>67</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2704,11 +2840,19 @@
         <v>34188.79960000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>67</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2737,11 +2881,19 @@
         <v>44198.79960000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="J62" t="n">
+        <v>67</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2770,11 +2922,19 @@
         <v>56198.79960000001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>67</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2803,11 +2963,19 @@
         <v>56198.79960000001</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>67</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2836,11 +3004,19 @@
         <v>56198.79960000001</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>67</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2869,11 +3045,19 @@
         <v>55198.79960000001</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>67</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2902,11 +3086,19 @@
         <v>51845.0491</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>67</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2935,11 +3127,19 @@
         <v>53416.5759</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>67</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2968,11 +3168,19 @@
         <v>255842.1373651471</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="J69" t="n">
+        <v>67</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3004,8 +3212,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>67</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3037,8 +3251,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>67</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3067,11 +3287,17 @@
         <v>349048.4151651471</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>67</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3100,11 +3326,17 @@
         <v>356546.4503651471</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>67</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3136,8 +3368,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>67</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3169,8 +3407,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>67</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3202,8 +3446,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>67</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3235,8 +3485,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>67</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3268,8 +3524,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>67</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3301,8 +3563,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>67</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3334,8 +3602,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>67</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3367,8 +3641,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>67</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3400,8 +3680,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>67</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3433,8 +3719,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>67</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3466,8 +3758,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>67</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3499,8 +3797,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>67</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3532,8 +3836,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>67</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3562,13 +3872,19 @@
         <v>448369.2989651471</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>67</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>1.003955223880597</v>
       </c>
       <c r="M87" t="inlineStr"/>
     </row>
@@ -3595,7 +3911,7 @@
         <v>450342.2131651471</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3628,7 +3944,7 @@
         <v>466483.4671651471</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3661,7 +3977,7 @@
         <v>465483.4671651471</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3694,7 +4010,7 @@
         <v>464612.4672651471</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3727,7 +4043,7 @@
         <v>464612.4672651471</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3826,7 +4142,7 @@
         <v>376002.7241651471</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3859,7 +4175,7 @@
         <v>376697.7241651471</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3892,7 +4208,7 @@
         <v>373297.7241651471</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3925,7 +4241,7 @@
         <v>373797.7241651471</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3958,7 +4274,7 @@
         <v>373797.7241651471</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3991,7 +4307,7 @@
         <v>361912.1801651471</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4024,7 +4340,7 @@
         <v>362041.122265147</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4057,7 +4373,7 @@
         <v>362051.122265147</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4090,7 +4406,7 @@
         <v>361591.832565147</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4123,7 +4439,7 @@
         <v>361591.832565147</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4156,7 +4472,7 @@
         <v>362940.832565147</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4222,7 +4538,7 @@
         <v>384648.930465147</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4255,7 +4571,7 @@
         <v>382052.885765147</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4321,7 +4637,7 @@
         <v>383649.915965147</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4354,7 +4670,7 @@
         <v>383649.915965147</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4420,7 +4736,7 @@
         <v>371956.289065147</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4453,7 +4769,7 @@
         <v>368826.289065147</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4486,7 +4802,7 @@
         <v>368826.289065147</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4519,7 +4835,7 @@
         <v>372267.018865147</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4552,7 +4868,7 @@
         <v>371557.018865147</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4585,7 +4901,7 @@
         <v>371995.018865147</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4651,7 +4967,7 @@
         <v>371995.018865147</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4684,7 +5000,7 @@
         <v>362721.770065147</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4717,7 +5033,7 @@
         <v>374277.332865147</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4750,7 +5066,7 @@
         <v>374277.332865147</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4783,7 +5099,7 @@
         <v>373991.775265147</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4816,7 +5132,7 @@
         <v>368986.657565147</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4882,7 +5198,7 @@
         <v>353882.391665147</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4915,7 +5231,7 @@
         <v>353882.391665147</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4948,7 +5264,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4981,7 +5297,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5014,7 +5330,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5047,7 +5363,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5080,7 +5396,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5113,7 +5429,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5146,7 +5462,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5179,7 +5495,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5212,7 +5528,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5245,7 +5561,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5278,7 +5594,7 @@
         <v>233442.755765147</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5311,7 +5627,7 @@
         <v>270032.202465147</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5344,7 +5660,7 @@
         <v>270032.202465147</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5377,7 +5693,7 @@
         <v>274184.602465147</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5410,7 +5726,7 @@
         <v>274184.602465147</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5443,7 +5759,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5476,7 +5792,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5509,7 +5825,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5542,7 +5858,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5575,7 +5891,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5608,7 +5924,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5641,7 +5957,7 @@
         <v>265847.9429651471</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5674,7 +5990,7 @@
         <v>273491.4421651471</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5707,7 +6023,7 @@
         <v>273491.4421651471</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5740,7 +6056,7 @@
         <v>272334.6107651471</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5773,7 +6089,7 @@
         <v>272334.6107651471</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5806,7 +6122,7 @@
         <v>272334.6107651471</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5839,7 +6155,7 @@
         <v>275734.6107651471</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5872,7 +6188,7 @@
         <v>273844.6107651471</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5905,7 +6221,7 @@
         <v>274925.6106651471</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5916,6 +6232,6 @@
       <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-22 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>30380.37110000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>67</v>
-      </c>
-      <c r="J3" t="n">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,1331 +517,1111 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="J4" t="n">
-        <v>67</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="C5" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3010</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30390.37110000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>189.3177</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30390.37110000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>67</v>
+      </c>
+      <c r="C7" t="n">
+        <v>67</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>67</v>
+      </c>
+      <c r="F7" t="n">
+        <v>293.194</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30683.56510000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2780</v>
+      </c>
+      <c r="G8" t="n">
+        <v>27903.56510000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9032</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18871.56510000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11290.1172</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30161.68230000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2068.9769</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28092.70540000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30102.70540000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="C5" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C13" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="F5" t="n">
-        <v>3010</v>
-      </c>
-      <c r="G5" t="n">
-        <v>30390.37110000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>67</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="D13" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1660</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28442.70540000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>560</v>
+      </c>
+      <c r="G14" t="n">
+        <v>28442.70540000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>32897.6829</v>
+      </c>
+      <c r="G15" t="n">
+        <v>61340.38830000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>67</v>
+      </c>
+      <c r="C16" t="n">
+        <v>67</v>
+      </c>
+      <c r="D16" t="n">
+        <v>67</v>
+      </c>
+      <c r="E16" t="n">
+        <v>67</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4502.0284</v>
+      </c>
+      <c r="G16" t="n">
+        <v>65842.4167</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>67</v>
+      </c>
+      <c r="C17" t="n">
+        <v>67</v>
+      </c>
+      <c r="D17" t="n">
+        <v>67</v>
+      </c>
+      <c r="E17" t="n">
+        <v>67</v>
+      </c>
+      <c r="F17" t="n">
+        <v>640</v>
+      </c>
+      <c r="G17" t="n">
+        <v>65842.4167</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>67</v>
+      </c>
+      <c r="C18" t="n">
+        <v>67</v>
+      </c>
+      <c r="D18" t="n">
+        <v>67</v>
+      </c>
+      <c r="E18" t="n">
+        <v>67</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1550</v>
+      </c>
+      <c r="G18" t="n">
+        <v>65842.4167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>60842.4167</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>67</v>
+      </c>
+      <c r="D20" t="n">
+        <v>67</v>
+      </c>
+      <c r="E20" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2087.0021</v>
+      </c>
+      <c r="G20" t="n">
+        <v>62929.4188</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>52929.4188</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>52929.4188</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G23" t="n">
+        <v>52929.4188</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E24" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9736.5465</v>
+      </c>
+      <c r="G24" t="n">
+        <v>52929.4188</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>67</v>
+      </c>
+      <c r="C25" t="n">
+        <v>67</v>
+      </c>
+      <c r="D25" t="n">
+        <v>67</v>
+      </c>
+      <c r="E25" t="n">
+        <v>67</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" t="n">
+        <v>52939.4188</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>67</v>
+      </c>
+      <c r="C26" t="n">
+        <v>67</v>
+      </c>
+      <c r="D26" t="n">
+        <v>67</v>
+      </c>
+      <c r="E26" t="n">
+        <v>67</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" t="n">
+        <v>52939.4188</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>67</v>
+      </c>
+      <c r="C27" t="n">
+        <v>67</v>
+      </c>
+      <c r="D27" t="n">
+        <v>67</v>
+      </c>
+      <c r="E27" t="n">
+        <v>67</v>
+      </c>
+      <c r="F27" t="n">
+        <v>40</v>
+      </c>
+      <c r="G27" t="n">
+        <v>52939.4188</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>67</v>
+      </c>
+      <c r="C28" t="n">
+        <v>67</v>
+      </c>
+      <c r="D28" t="n">
+        <v>67</v>
+      </c>
+      <c r="E28" t="n">
+        <v>67</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>52939.4188</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>67</v>
+      </c>
+      <c r="C29" t="n">
+        <v>67</v>
+      </c>
+      <c r="D29" t="n">
+        <v>67</v>
+      </c>
+      <c r="E29" t="n">
+        <v>67</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1026.7761</v>
+      </c>
+      <c r="G29" t="n">
+        <v>52939.4188</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>47939.4188</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E31" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4292.7337</v>
+      </c>
+      <c r="G31" t="n">
+        <v>47939.4188</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D32" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>47939.4188</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E33" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F33" t="n">
+        <v>23154.3558</v>
+      </c>
+      <c r="G33" t="n">
+        <v>47939.4188</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E34" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4880.52315710015</v>
+      </c>
+      <c r="G34" t="n">
+        <v>47939.4188</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E35" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5110</v>
+      </c>
+      <c r="G35" t="n">
+        <v>47939.4188</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>67</v>
+      </c>
+      <c r="D36" t="n">
+        <v>67</v>
+      </c>
+      <c r="E36" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" t="n">
+        <v>47949.4188</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C6" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>189.3177</v>
-      </c>
-      <c r="G6" t="n">
-        <v>30390.37110000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>67</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>67</v>
-      </c>
-      <c r="C7" t="n">
-        <v>67</v>
-      </c>
-      <c r="D7" t="n">
-        <v>67</v>
-      </c>
-      <c r="E7" t="n">
-        <v>67</v>
-      </c>
-      <c r="F7" t="n">
-        <v>293.194</v>
-      </c>
-      <c r="G7" t="n">
-        <v>30683.56510000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>67</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2780</v>
-      </c>
-      <c r="G8" t="n">
-        <v>27903.56510000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>67</v>
-      </c>
-      <c r="J8" t="n">
-        <v>67</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9032</v>
-      </c>
-      <c r="G9" t="n">
-        <v>18871.56510000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>67</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11290.1172</v>
-      </c>
-      <c r="G10" t="n">
-        <v>30161.68230000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>67</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2068.9769</v>
-      </c>
-      <c r="G11" t="n">
-        <v>28092.70540000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>67</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G12" t="n">
-        <v>30102.70540000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>67</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="C13" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="D13" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1660</v>
-      </c>
-      <c r="G13" t="n">
-        <v>28442.70540000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>67</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="C14" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="D14" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>560</v>
-      </c>
-      <c r="G14" t="n">
-        <v>28442.70540000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J14" t="n">
-        <v>67</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>32897.6829</v>
-      </c>
-      <c r="G15" t="n">
-        <v>61340.38830000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>67</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>67</v>
-      </c>
-      <c r="C16" t="n">
-        <v>67</v>
-      </c>
-      <c r="D16" t="n">
-        <v>67</v>
-      </c>
-      <c r="E16" t="n">
-        <v>67</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4502.0284</v>
-      </c>
-      <c r="G16" t="n">
-        <v>65842.4167</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>67</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>67</v>
-      </c>
-      <c r="C17" t="n">
-        <v>67</v>
-      </c>
-      <c r="D17" t="n">
-        <v>67</v>
-      </c>
-      <c r="E17" t="n">
-        <v>67</v>
-      </c>
-      <c r="F17" t="n">
-        <v>640</v>
-      </c>
-      <c r="G17" t="n">
-        <v>65842.4167</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>67</v>
-      </c>
-      <c r="J17" t="n">
-        <v>67</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>67</v>
-      </c>
-      <c r="C18" t="n">
-        <v>67</v>
-      </c>
-      <c r="D18" t="n">
-        <v>67</v>
-      </c>
-      <c r="E18" t="n">
-        <v>67</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1550</v>
-      </c>
-      <c r="G18" t="n">
-        <v>65842.4167</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>67</v>
-      </c>
-      <c r="J18" t="n">
-        <v>67</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>60842.4167</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>67</v>
-      </c>
-      <c r="J19" t="n">
-        <v>67</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C20" t="n">
-        <v>67</v>
-      </c>
-      <c r="D20" t="n">
-        <v>67</v>
-      </c>
-      <c r="E20" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2087.0021</v>
-      </c>
-      <c r="G20" t="n">
-        <v>62929.4188</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>67</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C21" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D21" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E21" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>52929.4188</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>67</v>
-      </c>
-      <c r="J21" t="n">
-        <v>67</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C22" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D22" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E22" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G22" t="n">
-        <v>52929.4188</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>67</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C23" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D23" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E23" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G23" t="n">
-        <v>52929.4188</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J23" t="n">
-        <v>67</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C24" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D24" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E24" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9736.5465</v>
-      </c>
-      <c r="G24" t="n">
-        <v>52929.4188</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J24" t="n">
-        <v>67</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>67</v>
-      </c>
-      <c r="C25" t="n">
-        <v>67</v>
-      </c>
-      <c r="D25" t="n">
-        <v>67</v>
-      </c>
-      <c r="E25" t="n">
-        <v>67</v>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G25" t="n">
-        <v>52939.4188</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>67</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>67</v>
-      </c>
-      <c r="C26" t="n">
-        <v>67</v>
-      </c>
-      <c r="D26" t="n">
-        <v>67</v>
-      </c>
-      <c r="E26" t="n">
-        <v>67</v>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-      <c r="G26" t="n">
-        <v>52939.4188</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>67</v>
-      </c>
-      <c r="J26" t="n">
-        <v>67</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>67</v>
-      </c>
-      <c r="C27" t="n">
-        <v>67</v>
-      </c>
-      <c r="D27" t="n">
-        <v>67</v>
-      </c>
-      <c r="E27" t="n">
-        <v>67</v>
-      </c>
-      <c r="F27" t="n">
-        <v>40</v>
-      </c>
-      <c r="G27" t="n">
-        <v>52939.4188</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>67</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>67</v>
-      </c>
-      <c r="C28" t="n">
-        <v>67</v>
-      </c>
-      <c r="D28" t="n">
-        <v>67</v>
-      </c>
-      <c r="E28" t="n">
-        <v>67</v>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
-      </c>
-      <c r="G28" t="n">
-        <v>52939.4188</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>67</v>
-      </c>
-      <c r="J28" t="n">
-        <v>67</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>67</v>
-      </c>
-      <c r="C29" t="n">
-        <v>67</v>
-      </c>
-      <c r="D29" t="n">
-        <v>67</v>
-      </c>
-      <c r="E29" t="n">
-        <v>67</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1026.7761</v>
-      </c>
-      <c r="G29" t="n">
-        <v>52939.4188</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>67</v>
-      </c>
-      <c r="J29" t="n">
-        <v>67</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C30" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D30" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E30" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G30" t="n">
-        <v>47939.4188</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>67</v>
-      </c>
-      <c r="J30" t="n">
-        <v>67</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C31" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D31" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E31" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F31" t="n">
-        <v>4292.7337</v>
-      </c>
-      <c r="G31" t="n">
-        <v>47939.4188</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J31" t="n">
-        <v>67</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C32" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D32" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E32" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F32" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G32" t="n">
-        <v>47939.4188</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J32" t="n">
-        <v>67</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C33" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D33" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E33" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>23154.3558</v>
-      </c>
-      <c r="G33" t="n">
-        <v>47939.4188</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J33" t="n">
-        <v>67</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C34" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D34" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E34" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4880.52315710015</v>
-      </c>
-      <c r="G34" t="n">
-        <v>47939.4188</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J34" t="n">
-        <v>67</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C35" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D35" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E35" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F35" t="n">
-        <v>5110</v>
-      </c>
-      <c r="G35" t="n">
-        <v>47939.4188</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J35" t="n">
-        <v>67</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C36" t="n">
-        <v>67</v>
-      </c>
-      <c r="D36" t="n">
-        <v>67</v>
-      </c>
-      <c r="E36" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
-      </c>
-      <c r="G36" t="n">
-        <v>47949.4188</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J36" t="n">
-        <v>67</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1874,14 +1650,10 @@
         <v>47949.4188</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>67</v>
-      </c>
-      <c r="J37" t="n">
-        <v>67</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1915,14 +1687,10 @@
         <v>47949.4188</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>67</v>
-      </c>
-      <c r="J38" t="n">
-        <v>67</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1961,9 +1729,7 @@
       <c r="I39" t="n">
         <v>67</v>
       </c>
-      <c r="J39" t="n">
-        <v>67</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2002,9 +1768,7 @@
       <c r="I40" t="n">
         <v>67</v>
       </c>
-      <c r="J40" t="n">
-        <v>67</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2038,14 +1802,10 @@
         <v>48176.8793</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>67</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2079,14 +1839,10 @@
         <v>48382.8533</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>67</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2125,9 +1881,7 @@
       <c r="I43" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="J43" t="n">
-        <v>67</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2166,9 +1920,7 @@
       <c r="I44" t="n">
         <v>67.2</v>
       </c>
-      <c r="J44" t="n">
-        <v>67</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2202,12 +1954,12 @@
         <v>39620.6102</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>67</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2241,12 +1993,10 @@
         <v>49582.6649</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>67</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2280,12 +2030,12 @@
         <v>59582.6649</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>67</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2319,20 +2069,16 @@
         <v>51662.6649</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>67</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2358,17 +2104,11 @@
         <v>-5936.594299999997</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>67</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2397,19 +2137,11 @@
         <v>-9565.650199999996</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>67</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2444,13 +2176,9 @@
         <v>67.09999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>67</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>67.09999999999999</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2485,11 +2213,11 @@
         <v>67.5</v>
       </c>
       <c r="J52" t="n">
-        <v>67</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2520,15 +2248,15 @@
         <v>8291.016300000003</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>67</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2559,17 +2287,11 @@
         <v>8291.016300000003</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>67</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2601,14 +2323,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>67</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2640,14 +2356,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>67</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2676,19 +2386,11 @@
         <v>1519.041200000003</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="J57" t="n">
-        <v>67</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2717,19 +2419,11 @@
         <v>1248.799600000003</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="J58" t="n">
-        <v>67</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2758,19 +2452,11 @@
         <v>1248.799600000003</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>67</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2799,19 +2485,11 @@
         <v>1248.799600000003</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>67</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2840,19 +2518,11 @@
         <v>34188.79960000001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>67</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2881,19 +2551,11 @@
         <v>44198.79960000001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="J62" t="n">
-        <v>67</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2922,19 +2584,11 @@
         <v>56198.79960000001</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="J63" t="n">
-        <v>67</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2963,19 +2617,11 @@
         <v>56198.79960000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>67</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -3004,19 +2650,11 @@
         <v>56198.79960000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>67</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3045,19 +2683,11 @@
         <v>55198.79960000001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>67</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3086,19 +2716,11 @@
         <v>51845.0491</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>67</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3127,19 +2749,11 @@
         <v>53416.5759</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="J68" t="n">
-        <v>67</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3168,19 +2782,11 @@
         <v>255842.1373651471</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>67</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3212,14 +2818,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>67</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3251,14 +2851,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>67</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3290,14 +2884,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>67</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3329,14 +2917,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>67</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3368,14 +2950,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>67</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3407,14 +2983,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>67</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3446,14 +3016,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>67</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3485,14 +3049,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>67</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3524,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>67</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3563,14 +3115,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>67</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3602,14 +3148,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>67</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3641,14 +3181,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>67</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3680,14 +3214,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>67</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3719,14 +3247,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>67</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3758,14 +3280,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>67</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3797,14 +3313,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>67</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3836,14 +3346,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>67</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3872,19 +3376,13 @@
         <v>448369.2989651471</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>67</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>1.003955223880597</v>
+        <v>1</v>
       </c>
       <c r="M87" t="inlineStr"/>
     </row>
@@ -3911,7 +3409,7 @@
         <v>450342.2131651471</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3944,7 +3442,7 @@
         <v>466483.4671651471</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3977,7 +3475,7 @@
         <v>465483.4671651471</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -4010,7 +3508,7 @@
         <v>464612.4672651471</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4043,7 +3541,7 @@
         <v>464612.4672651471</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4142,7 +3640,7 @@
         <v>376002.7241651471</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4175,7 +3673,7 @@
         <v>376697.7241651471</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4208,7 +3706,7 @@
         <v>373297.7241651471</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4241,7 +3739,7 @@
         <v>373797.7241651471</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4274,7 +3772,7 @@
         <v>373797.7241651471</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4307,7 +3805,7 @@
         <v>361912.1801651471</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4340,7 +3838,7 @@
         <v>362041.122265147</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4373,7 +3871,7 @@
         <v>362051.122265147</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4406,7 +3904,7 @@
         <v>361591.832565147</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4439,7 +3937,7 @@
         <v>361591.832565147</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4472,7 +3970,7 @@
         <v>362940.832565147</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4538,7 +4036,7 @@
         <v>384648.930465147</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4571,7 +4069,7 @@
         <v>382052.885765147</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4637,7 +4135,7 @@
         <v>383649.915965147</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4670,7 +4168,7 @@
         <v>383649.915965147</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4736,7 +4234,7 @@
         <v>371956.289065147</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4769,7 +4267,7 @@
         <v>368826.289065147</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4802,7 +4300,7 @@
         <v>368826.289065147</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4835,7 +4333,7 @@
         <v>372267.018865147</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4868,7 +4366,7 @@
         <v>371557.018865147</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4901,7 +4399,7 @@
         <v>371995.018865147</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4967,7 +4465,7 @@
         <v>371995.018865147</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5066,7 +4564,7 @@
         <v>374277.332865147</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5264,7 +4762,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5297,7 +4795,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5330,7 +4828,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5363,7 +4861,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5396,7 +4894,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5429,7 +4927,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5462,7 +4960,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5495,7 +4993,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5528,7 +5026,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5561,7 +5059,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5594,7 +5092,7 @@
         <v>233442.755765147</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5627,7 +5125,7 @@
         <v>270032.202465147</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5660,7 +5158,7 @@
         <v>270032.202465147</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5693,7 +5191,7 @@
         <v>274184.602465147</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5726,7 +5224,7 @@
         <v>274184.602465147</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5759,7 +5257,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5792,7 +5290,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5825,7 +5323,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5858,7 +5356,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5891,7 +5389,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5924,7 +5422,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5957,7 +5455,7 @@
         <v>265847.9429651471</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5990,7 +5488,7 @@
         <v>273491.4421651471</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6023,7 +5521,7 @@
         <v>273491.4421651471</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6056,7 +5554,7 @@
         <v>272334.6107651471</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6089,7 +5587,7 @@
         <v>272334.6107651471</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6122,7 +5620,7 @@
         <v>272334.6107651471</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6155,7 +5653,7 @@
         <v>275734.6107651471</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6188,7 +5686,7 @@
         <v>273844.6107651471</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6221,7 +5719,7 @@
         <v>274925.6106651471</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6232,6 +5730,6 @@
       <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-22 BackTest ENJ.xlsx
@@ -451,7 +451,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>30380.37110000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>67</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>67</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>30683.56510000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>67</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>27903.56510000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>67</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>18871.56510000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>67</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>30161.68230000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>67</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -754,9 +814,13 @@
         <v>66.90000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -791,11 +855,11 @@
         <v>66.5</v>
       </c>
       <c r="J12" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -832,11 +896,11 @@
         <v>66.7</v>
       </c>
       <c r="J13" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -867,11 +931,19 @@
         <v>28442.70540000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>67</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -906,9 +978,13 @@
         <v>66.59999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -943,11 +1019,11 @@
         <v>66.8</v>
       </c>
       <c r="J16" t="n">
-        <v>66.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -978,15 +1054,17 @@
         <v>65842.4167</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>67</v>
+      </c>
       <c r="J17" t="n">
-        <v>66.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1017,11 +1095,17 @@
         <v>65842.4167</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>67</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1050,11 +1134,19 @@
         <v>60842.4167</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>67</v>
+      </c>
+      <c r="J19" t="n">
+        <v>67</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1083,11 +1175,17 @@
         <v>62929.4188</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>67</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1116,11 +1214,19 @@
         <v>52929.4188</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>67</v>
+      </c>
+      <c r="J21" t="n">
+        <v>67</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1149,11 +1255,19 @@
         <v>52929.4188</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>67</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1182,11 +1296,19 @@
         <v>52929.4188</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>67</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1215,11 +1337,19 @@
         <v>52929.4188</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J24" t="n">
+        <v>67</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1248,11 +1378,19 @@
         <v>52939.4188</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>67</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1281,11 +1419,19 @@
         <v>52939.4188</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>67</v>
+      </c>
+      <c r="J26" t="n">
+        <v>67</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1314,11 +1460,19 @@
         <v>52939.4188</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>67</v>
+      </c>
+      <c r="J27" t="n">
+        <v>67</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1347,11 +1501,19 @@
         <v>52939.4188</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>67</v>
+      </c>
+      <c r="J28" t="n">
+        <v>67</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1380,11 +1542,19 @@
         <v>52939.4188</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>67</v>
+      </c>
+      <c r="J29" t="n">
+        <v>67</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1413,11 +1583,19 @@
         <v>47939.4188</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>67</v>
+      </c>
+      <c r="J30" t="n">
+        <v>67</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1446,11 +1624,19 @@
         <v>47939.4188</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J31" t="n">
+        <v>67</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1479,11 +1665,19 @@
         <v>47939.4188</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J32" t="n">
+        <v>67</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1512,11 +1706,19 @@
         <v>47939.4188</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J33" t="n">
+        <v>67</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1545,11 +1747,19 @@
         <v>47939.4188</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J34" t="n">
+        <v>67</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1578,11 +1788,19 @@
         <v>47939.4188</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J35" t="n">
+        <v>67</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1616,10 +1834,12 @@
       <c r="I36" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>67</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1650,10 +1870,14 @@
         <v>47949.4188</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>67</v>
+      </c>
+      <c r="J37" t="n">
+        <v>67</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1687,10 +1911,14 @@
         <v>47949.4188</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>67</v>
+      </c>
+      <c r="J38" t="n">
+        <v>67</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1729,7 +1957,9 @@
       <c r="I39" t="n">
         <v>67</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>67</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1763,12 +1993,12 @@
         <v>48166.8793</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>67</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>67</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1802,10 +2032,12 @@
         <v>48176.8793</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>67</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1839,10 +2071,12 @@
         <v>48382.8533</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>67</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1876,12 +2110,12 @@
         <v>47812.9533</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>67</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1915,12 +2149,12 @@
         <v>47822.9533</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>67</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1954,12 +2188,12 @@
         <v>39620.6102</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>67</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1993,10 +2227,12 @@
         <v>49582.6649</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>67</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2030,12 +2266,12 @@
         <v>59582.6649</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>67</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2069,16 +2305,20 @@
         <v>51662.6649</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>67</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
       <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2104,11 +2344,17 @@
         <v>-5936.594299999997</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>67</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2137,11 +2383,17 @@
         <v>-9565.650199999996</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>67</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2170,15 +2422,17 @@
         <v>2511.016400000004</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>67.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2207,17 +2461,15 @@
         <v>7511.016300000004</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>67.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2248,15 +2500,15 @@
         <v>8291.016300000003</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2287,11 +2539,17 @@
         <v>8291.016300000003</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>67</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2323,8 +2581,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>67</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2356,8 +2620,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>67</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2389,8 +2659,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>67</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2422,8 +2698,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>67</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2455,8 +2737,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>67</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2488,8 +2776,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>67</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2521,8 +2815,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>67</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2554,8 +2854,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>67</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2587,8 +2893,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>67</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2620,8 +2932,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>67</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2653,8 +2971,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>67</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2686,8 +3010,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>67</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2719,8 +3049,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>67</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2752,8 +3088,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>67</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2785,8 +3127,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>67</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2818,8 +3166,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>67</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2851,8 +3205,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>67</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2884,8 +3244,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>67</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2917,8 +3283,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>67</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2950,8 +3322,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>67</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2980,13 +3358,19 @@
         <v>353431.0488651471</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>67</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>1.012910447761194</v>
       </c>
       <c r="M75" t="inlineStr"/>
     </row>
@@ -3112,7 +3496,7 @@
         <v>410069.7385651471</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3145,7 +3529,7 @@
         <v>406939.7385651471</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3178,7 +3562,7 @@
         <v>406939.7385651471</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3211,7 +3595,7 @@
         <v>463313.8302651471</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3244,7 +3628,7 @@
         <v>462642.1875651471</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3277,7 +3661,7 @@
         <v>462642.1875651471</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3640,7 +4024,7 @@
         <v>376002.7241651471</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3673,7 +4057,7 @@
         <v>376697.7241651471</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4366,7 +4750,7 @@
         <v>371557.018865147</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4399,7 +4783,7 @@
         <v>371995.018865147</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4432,7 +4816,7 @@
         <v>371995.018865147</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4465,7 +4849,7 @@
         <v>371995.018865147</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4498,7 +4882,7 @@
         <v>362721.770065147</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4531,7 +4915,7 @@
         <v>374277.332865147</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4564,7 +4948,7 @@
         <v>374277.332865147</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4597,7 +4981,7 @@
         <v>373991.775265147</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4630,7 +5014,7 @@
         <v>368986.657565147</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4663,7 +5047,7 @@
         <v>368996.657565147</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4696,7 +5080,7 @@
         <v>353882.391665147</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4729,7 +5113,7 @@
         <v>353882.391665147</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4762,7 +5146,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4795,7 +5179,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5257,7 +5641,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>

--- a/BackTest/2019-10-22 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-22 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>30390.37110000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>30380.37110000001</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
         <v>67</v>
       </c>
-      <c r="J3" t="n">
-        <v>67</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>30390.37110000001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>67</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>3010</v>
       </c>
       <c r="G5" t="n">
-        <v>30390.37110000001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>67</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>67</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>189.3177</v>
       </c>
       <c r="G6" t="n">
-        <v>30390.37110000001</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>67</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>293.194</v>
       </c>
       <c r="G7" t="n">
-        <v>30683.56510000001</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>67</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +659,23 @@
         <v>2780</v>
       </c>
       <c r="G8" t="n">
-        <v>27903.56510000001</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="I8" t="n">
         <v>67</v>
       </c>
-      <c r="J8" t="n">
-        <v>67</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +697,21 @@
         <v>9032</v>
       </c>
       <c r="G9" t="n">
-        <v>18871.56510000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>67</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +733,23 @@
         <v>11290.1172</v>
       </c>
       <c r="G10" t="n">
-        <v>30161.68230000001</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>67</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +771,23 @@
         <v>2068.9769</v>
       </c>
       <c r="G11" t="n">
-        <v>28092.70540000001</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>67</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +809,23 @@
         <v>2010</v>
       </c>
       <c r="G12" t="n">
-        <v>30102.70540000001</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>66.5</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>67</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +847,23 @@
         <v>1660</v>
       </c>
       <c r="G13" t="n">
-        <v>28442.70540000001</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>66.7</v>
       </c>
       <c r="I13" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>67</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,26 +885,23 @@
         <v>560</v>
       </c>
       <c r="G14" t="n">
-        <v>28442.70540000001</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J14" t="n">
-        <v>67</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -969,26 +923,23 @@
         <v>32897.6829</v>
       </c>
       <c r="G15" t="n">
-        <v>61340.38830000001</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>67</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1010,26 +961,21 @@
         <v>4502.0284</v>
       </c>
       <c r="G16" t="n">
-        <v>65842.4167</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>67</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1051,26 +997,21 @@
         <v>640</v>
       </c>
       <c r="G17" t="n">
-        <v>65842.4167</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>67</v>
       </c>
-      <c r="J17" t="n">
-        <v>67</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,24 +1033,21 @@
         <v>1550</v>
       </c>
       <c r="G18" t="n">
-        <v>65842.4167</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>67</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>67</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1131,26 +1069,21 @@
         <v>5000</v>
       </c>
       <c r="G19" t="n">
-        <v>60842.4167</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>67</v>
       </c>
-      <c r="J19" t="n">
-        <v>67</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1172,24 +1105,21 @@
         <v>2087.0021</v>
       </c>
       <c r="G20" t="n">
-        <v>62929.4188</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>67</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>67</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1211,26 +1141,21 @@
         <v>10000</v>
       </c>
       <c r="G21" t="n">
-        <v>52929.4188</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
         <v>67</v>
       </c>
-      <c r="J21" t="n">
-        <v>67</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1252,26 +1177,21 @@
         <v>5000</v>
       </c>
       <c r="G22" t="n">
-        <v>52929.4188</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>67</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1293,26 +1213,21 @@
         <v>1500</v>
       </c>
       <c r="G23" t="n">
-        <v>52929.4188</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J23" t="n">
-        <v>67</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1334,26 +1249,23 @@
         <v>9736.5465</v>
       </c>
       <c r="G24" t="n">
-        <v>52929.4188</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J24" t="n">
-        <v>67</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1375,26 +1287,21 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>52939.4188</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>67</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1416,26 +1323,21 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>52939.4188</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
         <v>67</v>
       </c>
-      <c r="J26" t="n">
-        <v>67</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1457,26 +1359,21 @@
         <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>52939.4188</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
         <v>67</v>
       </c>
-      <c r="J27" t="n">
-        <v>67</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1498,26 +1395,21 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>52939.4188</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
         <v>67</v>
       </c>
-      <c r="J28" t="n">
-        <v>67</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1539,26 +1431,23 @@
         <v>1026.7761</v>
       </c>
       <c r="G29" t="n">
-        <v>52939.4188</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="I29" t="n">
         <v>67</v>
       </c>
-      <c r="J29" t="n">
-        <v>67</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1580,26 +1469,23 @@
         <v>5000</v>
       </c>
       <c r="G30" t="n">
-        <v>47939.4188</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="I30" t="n">
         <v>67</v>
       </c>
-      <c r="J30" t="n">
-        <v>67</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1621,26 +1507,23 @@
         <v>4292.7337</v>
       </c>
       <c r="G31" t="n">
-        <v>47939.4188</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J31" t="n">
-        <v>67</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1662,26 +1545,23 @@
         <v>10000</v>
       </c>
       <c r="G32" t="n">
-        <v>47939.4188</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J32" t="n">
-        <v>67</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1703,26 +1583,21 @@
         <v>23154.3558</v>
       </c>
       <c r="G33" t="n">
-        <v>47939.4188</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J33" t="n">
-        <v>67</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1744,26 +1619,21 @@
         <v>4880.52315710015</v>
       </c>
       <c r="G34" t="n">
-        <v>47939.4188</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J34" t="n">
-        <v>67</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1785,26 +1655,21 @@
         <v>5110</v>
       </c>
       <c r="G35" t="n">
-        <v>47939.4188</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J35" t="n">
-        <v>67</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1826,26 +1691,21 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>47949.4188</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J36" t="n">
-        <v>67</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1867,26 +1727,21 @@
         <v>1606.6086</v>
       </c>
       <c r="G37" t="n">
-        <v>47949.4188</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
         <v>67</v>
       </c>
-      <c r="J37" t="n">
-        <v>67</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1908,26 +1763,21 @@
         <v>1659.9749</v>
       </c>
       <c r="G38" t="n">
-        <v>47949.4188</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
         <v>67</v>
       </c>
-      <c r="J38" t="n">
-        <v>67</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1949,26 +1799,21 @@
         <v>4.2899850523169e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>47949.4188</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
         <v>67</v>
       </c>
-      <c r="J39" t="n">
-        <v>67</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1990,24 +1835,21 @@
         <v>217.4605</v>
       </c>
       <c r="G40" t="n">
-        <v>48166.8793</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>67</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>67</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2029,24 +1871,21 @@
         <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>48176.8793</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>67</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>67</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2068,24 +1907,21 @@
         <v>205.974</v>
       </c>
       <c r="G42" t="n">
-        <v>48382.8533</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>67</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>67</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2107,24 +1943,21 @@
         <v>569.9</v>
       </c>
       <c r="G43" t="n">
-        <v>47812.9533</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>67</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>67</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2146,24 +1979,23 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>47822.9533</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>67</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>67.2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>67</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2185,24 +2017,21 @@
         <v>8202.3431</v>
       </c>
       <c r="G45" t="n">
-        <v>39620.6102</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>67</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>67</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2224,24 +2053,21 @@
         <v>9962.054700000001</v>
       </c>
       <c r="G46" t="n">
-        <v>49582.6649</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>67</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>67</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2263,24 +2089,21 @@
         <v>10000</v>
       </c>
       <c r="G47" t="n">
-        <v>59582.6649</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>67</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>67</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2302,24 +2125,21 @@
         <v>7920</v>
       </c>
       <c r="G48" t="n">
-        <v>51662.6649</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>67</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>67</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2341,24 +2161,21 @@
         <v>57599.2592</v>
       </c>
       <c r="G49" t="n">
-        <v>-5936.594299999997</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>67</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>67</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2380,24 +2197,21 @@
         <v>3629.0559</v>
       </c>
       <c r="G50" t="n">
-        <v>-9565.650199999996</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>67</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>67</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2419,24 +2233,23 @@
         <v>12076.6666</v>
       </c>
       <c r="G51" t="n">
-        <v>2511.016400000004</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>67</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>67.09999999999999</v>
+      </c>
+      <c r="I51" t="n">
+        <v>67</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2458,24 +2271,21 @@
         <v>4999.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>7511.016300000004</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>67</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>67</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2497,24 +2307,21 @@
         <v>780</v>
       </c>
       <c r="G53" t="n">
-        <v>8291.016300000003</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>67</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>67</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2536,24 +2343,21 @@
         <v>485.9271</v>
       </c>
       <c r="G54" t="n">
-        <v>8291.016300000003</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>67</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>67</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2575,24 +2379,21 @@
         <v>717</v>
       </c>
       <c r="G55" t="n">
-        <v>8291.016300000003</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>67</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>67</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2614,24 +2415,21 @@
         <v>790</v>
       </c>
       <c r="G56" t="n">
-        <v>7501.016300000003</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>67</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>67</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2653,24 +2451,21 @@
         <v>5981.9751</v>
       </c>
       <c r="G57" t="n">
-        <v>1519.041200000003</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>67</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>67</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2692,24 +2487,21 @@
         <v>270.2416</v>
       </c>
       <c r="G58" t="n">
-        <v>1248.799600000003</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>67</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>67</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2731,24 +2523,21 @@
         <v>9628.642</v>
       </c>
       <c r="G59" t="n">
-        <v>1248.799600000003</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>67</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>67</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2770,24 +2559,23 @@
         <v>4000</v>
       </c>
       <c r="G60" t="n">
-        <v>1248.799600000003</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>67</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>67.3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>67</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2809,24 +2597,23 @@
         <v>32940</v>
       </c>
       <c r="G61" t="n">
-        <v>34188.79960000001</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>67</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>67.3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>67</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2848,24 +2635,21 @@
         <v>10010</v>
       </c>
       <c r="G62" t="n">
-        <v>44198.79960000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>67</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>67</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2887,24 +2671,21 @@
         <v>12000</v>
       </c>
       <c r="G63" t="n">
-        <v>56198.79960000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>67</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>67</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2926,24 +2707,21 @@
         <v>17400</v>
       </c>
       <c r="G64" t="n">
-        <v>56198.79960000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>67</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>67</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2965,24 +2743,21 @@
         <v>6383.1716</v>
       </c>
       <c r="G65" t="n">
-        <v>56198.79960000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>67</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>67</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3004,24 +2779,21 @@
         <v>1000</v>
       </c>
       <c r="G66" t="n">
-        <v>55198.79960000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>67</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>67</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3043,24 +2815,21 @@
         <v>3353.7505</v>
       </c>
       <c r="G67" t="n">
-        <v>51845.0491</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>67</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>67</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3082,24 +2851,21 @@
         <v>1571.5268</v>
       </c>
       <c r="G68" t="n">
-        <v>53416.5759</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>67</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>67</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3121,24 +2887,21 @@
         <v>202425.5614651471</v>
       </c>
       <c r="G69" t="n">
-        <v>255842.1373651471</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>67</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>67</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3160,24 +2923,21 @@
         <v>11460</v>
       </c>
       <c r="G70" t="n">
-        <v>267302.1373651471</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>67</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>67</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3199,24 +2959,21 @@
         <v>84217.3352</v>
       </c>
       <c r="G71" t="n">
-        <v>351519.4725651471</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>67</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>67</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3238,24 +2995,21 @@
         <v>2471.0574</v>
       </c>
       <c r="G72" t="n">
-        <v>349048.4151651471</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>67</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>67</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3277,24 +3031,21 @@
         <v>7498.0352</v>
       </c>
       <c r="G73" t="n">
-        <v>356546.4503651471</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>67</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>67</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3316,24 +3067,21 @@
         <v>14.5985</v>
       </c>
       <c r="G74" t="n">
-        <v>356561.0488651471</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>67</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>67</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3355,24 +3103,21 @@
         <v>3130</v>
       </c>
       <c r="G75" t="n">
-        <v>353431.0488651471</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>67</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1.012910447761194</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>67</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3394,18 +3139,21 @@
         <v>270</v>
       </c>
       <c r="G76" t="n">
-        <v>353701.0488651471</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>67</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3427,18 +3175,21 @@
         <v>28748.2481</v>
       </c>
       <c r="G77" t="n">
-        <v>353701.0488651471</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>67</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3460,18 +3211,21 @@
         <v>6830.1035</v>
       </c>
       <c r="G78" t="n">
-        <v>353701.0488651471</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>67</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1.017388059701493</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3493,18 +3247,15 @@
         <v>56368.6897</v>
       </c>
       <c r="G79" t="n">
-        <v>410069.7385651471</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3526,18 +3277,15 @@
         <v>3130</v>
       </c>
       <c r="G80" t="n">
-        <v>406939.7385651471</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3559,18 +3307,15 @@
         <v>1151.9999</v>
       </c>
       <c r="G81" t="n">
-        <v>406939.7385651471</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3592,18 +3337,15 @@
         <v>56374.0917</v>
       </c>
       <c r="G82" t="n">
-        <v>463313.8302651471</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3625,18 +3367,15 @@
         <v>671.6427</v>
       </c>
       <c r="G83" t="n">
-        <v>462642.1875651471</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3658,18 +3397,15 @@
         <v>15</v>
       </c>
       <c r="G84" t="n">
-        <v>462642.1875651471</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3691,18 +3427,15 @@
         <v>14000</v>
       </c>
       <c r="G85" t="n">
-        <v>448642.1875651471</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3724,18 +3457,15 @@
         <v>272.8886</v>
       </c>
       <c r="G86" t="n">
-        <v>448369.2989651471</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3757,18 +3487,15 @@
         <v>20682.8241</v>
       </c>
       <c r="G87" t="n">
-        <v>448369.2989651471</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3790,18 +3517,15 @@
         <v>1972.9142</v>
       </c>
       <c r="G88" t="n">
-        <v>450342.2131651471</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3823,18 +3547,15 @@
         <v>16141.254</v>
       </c>
       <c r="G89" t="n">
-        <v>466483.4671651471</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3856,18 +3577,15 @@
         <v>1000</v>
       </c>
       <c r="G90" t="n">
-        <v>465483.4671651471</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3889,18 +3607,15 @@
         <v>870.9999</v>
       </c>
       <c r="G91" t="n">
-        <v>464612.4672651471</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3922,18 +3637,15 @@
         <v>4322.6889</v>
       </c>
       <c r="G92" t="n">
-        <v>464612.4672651471</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3955,18 +3667,15 @@
         <v>1500</v>
       </c>
       <c r="G93" t="n">
-        <v>466112.4672651471</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3988,18 +3697,15 @@
         <v>8061.9311</v>
       </c>
       <c r="G94" t="n">
-        <v>474174.3983651471</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4021,18 +3727,15 @@
         <v>98171.67419999999</v>
       </c>
       <c r="G95" t="n">
-        <v>376002.7241651471</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4054,18 +3757,15 @@
         <v>695</v>
       </c>
       <c r="G96" t="n">
-        <v>376697.7241651471</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4087,18 +3787,15 @@
         <v>3400</v>
       </c>
       <c r="G97" t="n">
-        <v>373297.7241651471</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4120,18 +3817,15 @@
         <v>500</v>
       </c>
       <c r="G98" t="n">
-        <v>373797.7241651471</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4153,18 +3847,15 @@
         <v>5010</v>
       </c>
       <c r="G99" t="n">
-        <v>373797.7241651471</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4186,18 +3877,15 @@
         <v>11885.544</v>
       </c>
       <c r="G100" t="n">
-        <v>361912.1801651471</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4219,18 +3907,15 @@
         <v>128.9421</v>
       </c>
       <c r="G101" t="n">
-        <v>362041.122265147</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4252,18 +3937,15 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>362051.122265147</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4285,18 +3967,15 @@
         <v>459.2897</v>
       </c>
       <c r="G103" t="n">
-        <v>361591.832565147</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4318,18 +3997,15 @@
         <v>568.4752</v>
       </c>
       <c r="G104" t="n">
-        <v>361591.832565147</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4351,18 +4027,15 @@
         <v>1349</v>
       </c>
       <c r="G105" t="n">
-        <v>362940.832565147</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4384,18 +4057,15 @@
         <v>1448.1504</v>
       </c>
       <c r="G106" t="n">
-        <v>361492.682165147</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4417,18 +4087,15 @@
         <v>23156.2483</v>
       </c>
       <c r="G107" t="n">
-        <v>384648.930465147</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4450,18 +4117,15 @@
         <v>2596.0447</v>
       </c>
       <c r="G108" t="n">
-        <v>382052.885765147</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4483,18 +4147,15 @@
         <v>1597.0302</v>
       </c>
       <c r="G109" t="n">
-        <v>383649.915965147</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4516,18 +4177,15 @@
         <v>908.9597</v>
       </c>
       <c r="G110" t="n">
-        <v>383649.915965147</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4549,18 +4207,15 @@
         <v>7330.5907</v>
       </c>
       <c r="G111" t="n">
-        <v>383649.915965147</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4582,18 +4237,15 @@
         <v>790</v>
       </c>
       <c r="G112" t="n">
-        <v>382859.915965147</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4615,18 +4267,15 @@
         <v>10903.6269</v>
       </c>
       <c r="G113" t="n">
-        <v>371956.289065147</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4648,18 +4297,15 @@
         <v>3130</v>
       </c>
       <c r="G114" t="n">
-        <v>368826.289065147</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4681,18 +4327,15 @@
         <v>8239.550499999999</v>
       </c>
       <c r="G115" t="n">
-        <v>368826.289065147</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4714,18 +4357,15 @@
         <v>3440.7298</v>
       </c>
       <c r="G116" t="n">
-        <v>372267.018865147</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4747,18 +4387,15 @@
         <v>710</v>
       </c>
       <c r="G117" t="n">
-        <v>371557.018865147</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4780,18 +4417,15 @@
         <v>438</v>
       </c>
       <c r="G118" t="n">
-        <v>371995.018865147</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4813,18 +4447,15 @@
         <v>620</v>
       </c>
       <c r="G119" t="n">
-        <v>371995.018865147</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4846,18 +4477,15 @@
         <v>7897.2983</v>
       </c>
       <c r="G120" t="n">
-        <v>371995.018865147</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4879,18 +4507,15 @@
         <v>9273.248799999999</v>
       </c>
       <c r="G121" t="n">
-        <v>362721.770065147</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4912,18 +4537,15 @@
         <v>11555.5628</v>
       </c>
       <c r="G122" t="n">
-        <v>374277.332865147</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4945,18 +4567,15 @@
         <v>2915.451895043732</v>
       </c>
       <c r="G123" t="n">
-        <v>374277.332865147</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4978,18 +4597,15 @@
         <v>285.5576</v>
       </c>
       <c r="G124" t="n">
-        <v>373991.775265147</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5011,18 +4627,15 @@
         <v>5005.1177</v>
       </c>
       <c r="G125" t="n">
-        <v>368986.657565147</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5044,18 +4657,15 @@
         <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>368996.657565147</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5077,18 +4687,15 @@
         <v>15114.2659</v>
       </c>
       <c r="G127" t="n">
-        <v>353882.391665147</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5110,18 +4717,15 @@
         <v>451</v>
       </c>
       <c r="G128" t="n">
-        <v>353882.391665147</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5143,18 +4747,15 @@
         <v>62676.929</v>
       </c>
       <c r="G129" t="n">
-        <v>291205.462665147</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5176,18 +4777,15 @@
         <v>8602.5414</v>
       </c>
       <c r="G130" t="n">
-        <v>291205.462665147</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5209,18 +4807,15 @@
         <v>11199.2</v>
       </c>
       <c r="G131" t="n">
-        <v>291205.462665147</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5242,18 +4837,15 @@
         <v>1205.7299</v>
       </c>
       <c r="G132" t="n">
-        <v>291205.462665147</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5275,18 +4867,15 @@
         <v>988.7418</v>
       </c>
       <c r="G133" t="n">
-        <v>291205.462665147</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5308,18 +4897,15 @@
         <v>2778</v>
       </c>
       <c r="G134" t="n">
-        <v>291205.462665147</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5341,18 +4927,15 @@
         <v>3000</v>
       </c>
       <c r="G135" t="n">
-        <v>291205.462665147</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5374,18 +4957,15 @@
         <v>1318.7432</v>
       </c>
       <c r="G136" t="n">
-        <v>291205.462665147</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5407,18 +4987,15 @@
         <v>760.7195</v>
       </c>
       <c r="G137" t="n">
-        <v>291205.462665147</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5440,18 +5017,15 @@
         <v>10431.9872</v>
       </c>
       <c r="G138" t="n">
-        <v>291205.462665147</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5473,18 +5047,15 @@
         <v>57762.7069</v>
       </c>
       <c r="G139" t="n">
-        <v>233442.755765147</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5506,18 +5077,15 @@
         <v>36589.4467</v>
       </c>
       <c r="G140" t="n">
-        <v>270032.202465147</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5539,18 +5107,15 @@
         <v>38366.3688</v>
       </c>
       <c r="G141" t="n">
-        <v>270032.202465147</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5572,18 +5137,15 @@
         <v>4152.4</v>
       </c>
       <c r="G142" t="n">
-        <v>274184.602465147</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5605,18 +5167,15 @@
         <v>1646.1399</v>
       </c>
       <c r="G143" t="n">
-        <v>274184.602465147</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5638,18 +5197,15 @@
         <v>4973.3905</v>
       </c>
       <c r="G144" t="n">
-        <v>269211.2119651471</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5671,18 +5227,15 @@
         <v>35433.7414</v>
       </c>
       <c r="G145" t="n">
-        <v>269211.2119651471</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5704,18 +5257,15 @@
         <v>1225.9999</v>
       </c>
       <c r="G146" t="n">
-        <v>269211.2119651471</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5737,18 +5287,15 @@
         <v>593.8596</v>
       </c>
       <c r="G147" t="n">
-        <v>269211.2119651471</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5770,18 +5317,15 @@
         <v>6973.1567</v>
       </c>
       <c r="G148" t="n">
-        <v>269211.2119651471</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5803,18 +5347,15 @@
         <v>2142</v>
       </c>
       <c r="G149" t="n">
-        <v>269211.2119651471</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5836,18 +5377,15 @@
         <v>3363.269</v>
       </c>
       <c r="G150" t="n">
-        <v>265847.9429651471</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5869,18 +5407,15 @@
         <v>7643.4992</v>
       </c>
       <c r="G151" t="n">
-        <v>273491.4421651471</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5902,18 +5437,15 @@
         <v>623.4164</v>
       </c>
       <c r="G152" t="n">
-        <v>273491.4421651471</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5935,18 +5467,15 @@
         <v>1156.8314</v>
       </c>
       <c r="G153" t="n">
-        <v>272334.6107651471</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5968,18 +5497,15 @@
         <v>16.0714</v>
       </c>
       <c r="G154" t="n">
-        <v>272334.6107651471</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6001,18 +5527,21 @@
         <v>2673.6356</v>
       </c>
       <c r="G155" t="n">
-        <v>272334.6107651471</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6034,18 +5563,19 @@
         <v>3400</v>
       </c>
       <c r="G156" t="n">
-        <v>275734.6107651471</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6067,18 +5597,21 @@
         <v>1890</v>
       </c>
       <c r="G157" t="n">
-        <v>273844.6107651471</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>67.3</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6100,18 +5633,19 @@
         <v>1080.9999</v>
       </c>
       <c r="G158" t="n">
-        <v>274925.6106651471</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
